--- a/2P sheets/all 2P/HCN_Genus_2PSummary.xlsx
+++ b/2P sheets/all 2P/HCN_Genus_2PSummary.xlsx
@@ -50,30 +50,29 @@
     <sheet name="Oulimnius" sheetId="42" state="visible" r:id="rId42"/>
     <sheet name="Paracapnia" sheetId="43" state="visible" r:id="rId43"/>
     <sheet name="Paraleptophlebia" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="Paraleptophlebiidae" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="Polycentropus" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Probezzia" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Prosimulium" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Prostoia" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="Psephenus" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="Pteronarcys" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="Remenus" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="Rhagovelia" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="Rhyacophila" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="Simulium" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="Stenelmis" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="Stenonema" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="Stylogomphus" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="Taeniopteryx" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="Tanypodinae" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="Tanytarsini" sheetId="61" state="visible" r:id="rId61"/>
-    <sheet name="Tipula" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="Polycentropus" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Probezzia" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Prosimulium" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Prostoia" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Psephenus" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Pteronarcys" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Remenus" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="Rhagovelia" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="Rhyacophila" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="Simulium" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="Stenelmis" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="Stenonema" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="Stylogomphus" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="Taeniopteryx" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="Tanypodinae" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="Tanytarsini" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="Tipula" sheetId="61" state="visible" r:id="rId61"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">Genus</t>
   </si>
@@ -259,9 +258,6 @@
   </si>
   <si>
     <t xml:space="preserve">Paraleptophlebia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraleptophlebiidae</t>
   </si>
   <si>
     <t xml:space="preserve">Polycentropus</t>
@@ -6372,28 +6368,28 @@
         <v>43.0570505920344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0076</v>
+        <v>0.00076</v>
       </c>
       <c r="F2" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.327233584499462</v>
+        <v>0.0327233584499462</v>
       </c>
       <c r="H2" t="n">
-        <v>0.019420344225</v>
+        <v>0.0019420344225</v>
       </c>
       <c r="I2" t="n">
-        <v>0.418091371905274</v>
+        <v>0.0418091371905274</v>
       </c>
       <c r="J2" t="n">
-        <v>2.50854823143165</v>
+        <v>0.250854823143165</v>
       </c>
       <c r="K2" t="n">
-        <v>492.886327976319</v>
+        <v>49.2886327976319</v>
       </c>
       <c r="L2" t="n">
-        <v>995.731192960172</v>
+        <v>99.5731192960172</v>
       </c>
       <c r="M2" t="n">
         <v>2.02020453082645</v>
@@ -6402,7 +6398,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>497.865596480086</v>
+        <v>49.7865596480086</v>
       </c>
       <c r="P2" t="n">
         <v>1.01010226541323</v>
@@ -6425,16 +6421,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03124068845</v>
+        <v>0.003124068845</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.672565951560818</v>
+        <v>0.0672565951560818</v>
       </c>
       <c r="H3" t="n">
-        <v>0.081812952725</v>
+        <v>0.0081812952725</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -6443,10 +6439,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>492.886327976319</v>
+        <v>49.2886327976319</v>
       </c>
       <c r="L3" t="n">
-        <v>995.731192960172</v>
+        <v>99.5731192960172</v>
       </c>
       <c r="M3" t="n">
         <v>2.02020453082645</v>
@@ -6455,7 +6451,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>497.865596480086</v>
+        <v>49.7865596480086</v>
       </c>
       <c r="P3" t="n">
         <v>1.01010226541323</v>
@@ -6478,28 +6474,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.132385217</v>
+        <v>0.0132385217</v>
       </c>
       <c r="F4" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>2.85005849300323</v>
+        <v>0.285005849300323</v>
       </c>
       <c r="H4" t="n">
-        <v>0.15005775255</v>
+        <v>0.015005775255</v>
       </c>
       <c r="I4" t="n">
-        <v>1.61526106081808</v>
+        <v>0.161526106081808</v>
       </c>
       <c r="J4" t="n">
-        <v>9.6915663649085</v>
+        <v>0.96915663649085</v>
       </c>
       <c r="K4" t="n">
-        <v>492.886327976319</v>
+        <v>49.2886327976319</v>
       </c>
       <c r="L4" t="n">
-        <v>995.731192960172</v>
+        <v>99.5731192960172</v>
       </c>
       <c r="M4" t="n">
         <v>2.02020453082645</v>
@@ -6508,7 +6504,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>497.865596480086</v>
+        <v>49.7865596480086</v>
       </c>
       <c r="P4" t="n">
         <v>1.01010226541323</v>
@@ -6531,16 +6527,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1677302881</v>
+        <v>0.01677302881</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.80549287513455</v>
+        <v>0.180549287513455</v>
       </c>
       <c r="H5" t="n">
-        <v>7.48740449905</v>
+        <v>0.748740449905</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6549,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>492.886327976319</v>
+        <v>49.2886327976319</v>
       </c>
       <c r="L5" t="n">
-        <v>995.731192960172</v>
+        <v>99.5731192960172</v>
       </c>
       <c r="M5" t="n">
         <v>2.02020453082645</v>
@@ -6561,7 +6557,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>497.865596480086</v>
+        <v>49.7865596480086</v>
       </c>
       <c r="P5" t="n">
         <v>1.01010226541323</v>
@@ -6584,16 +6580,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>14.80707871</v>
+        <v>1.480707871</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>159.387284284177</v>
+        <v>15.9387284284177</v>
       </c>
       <c r="H6" t="n">
-        <v>22.631878885</v>
+        <v>2.2631878885</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -6602,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>492.886327976319</v>
+        <v>49.2886327976319</v>
       </c>
       <c r="L6" t="n">
-        <v>995.731192960172</v>
+        <v>99.5731192960172</v>
       </c>
       <c r="M6" t="n">
         <v>2.02020453082645</v>
@@ -6614,7 +6610,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>497.865596480086</v>
+        <v>49.7865596480086</v>
       </c>
       <c r="P6" t="n">
         <v>1.01010226541323</v>
@@ -6637,28 +6633,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E7" t="n">
-        <v>30.45667906</v>
+        <v>3.045667906</v>
       </c>
       <c r="F7" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G7" t="n">
-        <v>327.843692787944</v>
+        <v>32.7843692787944</v>
       </c>
       <c r="H7" t="n">
-        <v>15.22833953</v>
+        <v>1.522833953</v>
       </c>
       <c r="I7" t="n">
-        <v>163.921846393972</v>
+        <v>16.3921846393972</v>
       </c>
       <c r="J7" t="n">
-        <v>983.531078363832</v>
+        <v>98.3531078363832</v>
       </c>
       <c r="K7" t="n">
-        <v>492.886327976319</v>
+        <v>49.2886327976319</v>
       </c>
       <c r="L7" t="n">
-        <v>995.731192960172</v>
+        <v>99.5731192960172</v>
       </c>
       <c r="M7" t="n">
         <v>2.02020453082645</v>
@@ -6667,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>497.865596480086</v>
+        <v>49.7865596480086</v>
       </c>
       <c r="P7" t="n">
         <v>1.01010226541323</v>
@@ -11101,40 +11097,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0038</v>
+        <v>0.00038</v>
       </c>
       <c r="F2" t="n">
         <v>-102.260495156082</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0409041980624327</v>
+        <v>0.00409041980624327</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1526816277125</v>
+        <v>0.01526816277125</v>
       </c>
       <c r="I2" t="n">
+        <v>-1.56132988511168</v>
+      </c>
+      <c r="J2" t="n">
         <v>-15.6132988511168</v>
       </c>
-      <c r="J2" t="n">
-        <v>-156.132988511168</v>
-      </c>
       <c r="K2" t="n">
-        <v>1802.8744163736</v>
+        <v>167.652310139782</v>
       </c>
       <c r="L2" t="n">
-        <v>7760.94200180934</v>
+        <v>801.641494711006</v>
       </c>
       <c r="M2" t="n">
-        <v>4.30476018258671</v>
+        <v>4.78157142029614</v>
       </c>
       <c r="N2" t="n">
         <v>1.2</v>
       </c>
       <c r="O2" t="n">
-        <v>6467.45166817445</v>
+        <v>668.034578925839</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5873001521556</v>
+        <v>3.98464285024678</v>
       </c>
       <c r="Q2" t="n">
         <v>0.115094565144961</v>
@@ -11154,40 +11150,40 @@
         <v>113.02475780409</v>
       </c>
       <c r="E3" t="n">
-        <v>0.301563255425</v>
+        <v>0.0301563255425</v>
       </c>
       <c r="F3" t="n">
         <v>-86.1141011840689</v>
       </c>
       <c r="G3" t="n">
-        <v>34.0841139070237</v>
+        <v>3.40841139070237</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7890278938975</v>
+        <v>0.07890278938975</v>
       </c>
       <c r="I3" t="n">
+        <v>-6.79464278921421</v>
+      </c>
+      <c r="J3" t="n">
         <v>-67.9464278921421</v>
       </c>
-      <c r="J3" t="n">
-        <v>-679.464278921421</v>
-      </c>
       <c r="K3" t="n">
-        <v>1802.8744163736</v>
+        <v>167.652310139782</v>
       </c>
       <c r="L3" t="n">
-        <v>7760.94200180934</v>
+        <v>801.641494711006</v>
       </c>
       <c r="M3" t="n">
-        <v>4.30476018258671</v>
+        <v>4.78157142029614</v>
       </c>
       <c r="N3" t="n">
         <v>1.2</v>
       </c>
       <c r="O3" t="n">
-        <v>6467.45166817445</v>
+        <v>668.034578925839</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5873001521556</v>
+        <v>3.98464285024678</v>
       </c>
       <c r="Q3" t="n">
         <v>0.115094565144961</v>
@@ -11207,40 +11203,40 @@
         <v>199.138858988159</v>
       </c>
       <c r="E4" t="n">
-        <v>1.27649253237</v>
+        <v>0.127649253237</v>
       </c>
       <c r="F4" t="n">
         <v>69.967707212056</v>
       </c>
       <c r="G4" t="n">
-        <v>254.199266403068</v>
+        <v>25.4199266403068</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6150496718725</v>
+        <v>0.16150496718725</v>
       </c>
       <c r="I4" t="n">
+        <v>11.3001322574502</v>
+      </c>
+      <c r="J4" t="n">
         <v>113.001322574502</v>
       </c>
-      <c r="J4" t="n">
-        <v>1130.01322574502</v>
-      </c>
       <c r="K4" t="n">
-        <v>1802.8744163736</v>
+        <v>167.652310139782</v>
       </c>
       <c r="L4" t="n">
-        <v>7760.94200180934</v>
+        <v>801.641494711006</v>
       </c>
       <c r="M4" t="n">
-        <v>4.30476018258671</v>
+        <v>4.78157142029614</v>
       </c>
       <c r="N4" t="n">
         <v>1.2</v>
       </c>
       <c r="O4" t="n">
-        <v>6467.45166817445</v>
+        <v>668.034578925839</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5873001521556</v>
+        <v>3.98464285024678</v>
       </c>
       <c r="Q4" t="n">
         <v>0.115094565144961</v>
@@ -11260,40 +11256,40 @@
         <v>129.171151776103</v>
       </c>
       <c r="E5" t="n">
-        <v>1.953606811375</v>
+        <v>0.1953606811375</v>
       </c>
       <c r="F5" t="n">
-        <v>53.8213132400431</v>
+        <v>80.7319698600646</v>
       </c>
       <c r="G5" t="n">
-        <v>252.349641942949</v>
+        <v>25.2349641942949</v>
       </c>
       <c r="H5" t="n">
-        <v>2.4337583229875</v>
+        <v>0.19389513702375</v>
       </c>
       <c r="I5" t="n">
-        <v>130.988069052072</v>
+        <v>15.6535363582145</v>
       </c>
       <c r="J5" t="n">
-        <v>1309.88069052072</v>
+        <v>156.535363582145</v>
       </c>
       <c r="K5" t="n">
-        <v>1802.8744163736</v>
+        <v>167.652310139782</v>
       </c>
       <c r="L5" t="n">
-        <v>7760.94200180934</v>
+        <v>801.641494711006</v>
       </c>
       <c r="M5" t="n">
-        <v>4.30476018258671</v>
+        <v>4.78157142029614</v>
       </c>
       <c r="N5" t="n">
         <v>1.2</v>
       </c>
       <c r="O5" t="n">
-        <v>6467.45166817445</v>
+        <v>668.034578925839</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5873001521556</v>
+        <v>3.98464285024678</v>
       </c>
       <c r="Q5" t="n">
         <v>0.115094565144961</v>
@@ -11310,43 +11306,43 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>75.3498385360603</v>
+        <v>48.4391819160387</v>
       </c>
       <c r="E6" t="n">
-        <v>2.9139098346</v>
+        <v>0.19242959291</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-26.9106566200215</v>
       </c>
       <c r="G6" t="n">
-        <v>219.562635545748</v>
+        <v>9.32113205699677</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9372136627</v>
+        <v>0.344240670995</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-9.26374249179225</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-92.6374249179225</v>
       </c>
       <c r="K6" t="n">
-        <v>1802.8744163736</v>
+        <v>167.652310139782</v>
       </c>
       <c r="L6" t="n">
-        <v>7760.94200180934</v>
+        <v>801.641494711006</v>
       </c>
       <c r="M6" t="n">
-        <v>4.30476018258671</v>
+        <v>4.78157142029614</v>
       </c>
       <c r="N6" t="n">
         <v>1.2</v>
       </c>
       <c r="O6" t="n">
-        <v>6467.45166817445</v>
+        <v>668.034578925839</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5873001521556</v>
+        <v>3.98464285024678</v>
       </c>
       <c r="Q6" t="n">
         <v>0.115094565144961</v>
@@ -11366,40 +11362,40 @@
         <v>75.3498385360603</v>
       </c>
       <c r="E7" t="n">
-        <v>4.9605174908</v>
+        <v>0.49605174908</v>
       </c>
       <c r="F7" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G7" t="n">
-        <v>373.774191987083</v>
+        <v>37.3774191987083</v>
       </c>
       <c r="H7" t="n">
-        <v>7.1071920014</v>
+        <v>0.71071920014</v>
       </c>
       <c r="I7" t="n">
+        <v>22.9511044178687</v>
+      </c>
+      <c r="J7" t="n">
         <v>229.511044178687</v>
       </c>
-      <c r="J7" t="n">
-        <v>2295.11044178687</v>
-      </c>
       <c r="K7" t="n">
-        <v>1802.8744163736</v>
+        <v>167.652310139782</v>
       </c>
       <c r="L7" t="n">
-        <v>7760.94200180934</v>
+        <v>801.641494711006</v>
       </c>
       <c r="M7" t="n">
-        <v>4.30476018258671</v>
+        <v>4.78157142029614</v>
       </c>
       <c r="N7" t="n">
         <v>1.2</v>
       </c>
       <c r="O7" t="n">
-        <v>6467.45166817445</v>
+        <v>668.034578925839</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5873001521556</v>
+        <v>3.98464285024678</v>
       </c>
       <c r="Q7" t="n">
         <v>0.115094565144961</v>
@@ -11419,40 +11415,40 @@
         <v>43.0570505920345</v>
       </c>
       <c r="E8" t="n">
-        <v>9.253866512</v>
+        <v>0.9253866512</v>
       </c>
       <c r="F8" t="n">
         <v>32.2927879440258</v>
       </c>
       <c r="G8" t="n">
-        <v>398.444198579117</v>
+        <v>39.8444198579117</v>
       </c>
       <c r="H8" t="n">
-        <v>6.200023367</v>
+        <v>0.6200023367</v>
       </c>
       <c r="I8" t="n">
+        <v>20.0216039838536</v>
+      </c>
+      <c r="J8" t="n">
         <v>200.216039838536</v>
       </c>
-      <c r="J8" t="n">
-        <v>2002.16039838536</v>
-      </c>
       <c r="K8" t="n">
-        <v>1802.8744163736</v>
+        <v>167.652310139782</v>
       </c>
       <c r="L8" t="n">
-        <v>7760.94200180934</v>
+        <v>801.641494711006</v>
       </c>
       <c r="M8" t="n">
-        <v>4.30476018258671</v>
+        <v>4.78157142029614</v>
       </c>
       <c r="N8" t="n">
         <v>1.2</v>
       </c>
       <c r="O8" t="n">
-        <v>6467.45166817445</v>
+        <v>668.034578925839</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5873001521556</v>
+        <v>3.98464285024678</v>
       </c>
       <c r="Q8" t="n">
         <v>0.115094565144961</v>
@@ -11472,40 +11468,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E9" t="n">
-        <v>3.146180222</v>
+        <v>0.3146180222</v>
       </c>
       <c r="F9" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G9" t="n">
-        <v>33.866310247578</v>
+        <v>3.3866310247578</v>
       </c>
       <c r="H9" t="n">
-        <v>5.7280558965</v>
+        <v>0.57280558965</v>
       </c>
       <c r="I9" t="n">
+        <v>-6.16582981324004</v>
+      </c>
+      <c r="J9" t="n">
         <v>-61.6582981324004</v>
       </c>
-      <c r="J9" t="n">
-        <v>-616.582981324004</v>
-      </c>
       <c r="K9" t="n">
-        <v>1802.8744163736</v>
+        <v>167.652310139782</v>
       </c>
       <c r="L9" t="n">
-        <v>7760.94200180934</v>
+        <v>801.641494711006</v>
       </c>
       <c r="M9" t="n">
-        <v>4.30476018258671</v>
+        <v>4.78157142029614</v>
       </c>
       <c r="N9" t="n">
         <v>1.2</v>
       </c>
       <c r="O9" t="n">
-        <v>6467.45166817445</v>
+        <v>668.034578925839</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5873001521556</v>
+        <v>3.98464285024678</v>
       </c>
       <c r="Q9" t="n">
         <v>0.115094565144961</v>
@@ -11525,40 +11521,40 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E10" t="n">
-        <v>8.309931571</v>
+        <v>0.8309931571</v>
       </c>
       <c r="F10" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G10" t="n">
-        <v>178.900572034446</v>
+        <v>17.8900572034446</v>
       </c>
       <c r="H10" t="n">
-        <v>6.8329281975</v>
+        <v>0.68329281975</v>
       </c>
       <c r="I10" t="n">
+        <v>7.35514337728741</v>
+      </c>
+      <c r="J10" t="n">
         <v>73.5514337728741</v>
       </c>
-      <c r="J10" t="n">
-        <v>735.514337728741</v>
-      </c>
       <c r="K10" t="n">
-        <v>1802.8744163736</v>
+        <v>167.652310139782</v>
       </c>
       <c r="L10" t="n">
-        <v>7760.94200180934</v>
+        <v>801.641494711006</v>
       </c>
       <c r="M10" t="n">
-        <v>4.30476018258671</v>
+        <v>4.78157142029614</v>
       </c>
       <c r="N10" t="n">
         <v>1.2</v>
       </c>
       <c r="O10" t="n">
-        <v>6467.45166817445</v>
+        <v>668.034578925839</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5873001521556</v>
+        <v>3.98464285024678</v>
       </c>
       <c r="Q10" t="n">
         <v>0.115094565144961</v>
@@ -11578,40 +11574,40 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E11" t="n">
-        <v>5.355924824</v>
+        <v>0.5355924824</v>
       </c>
       <c r="F11" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G11" t="n">
-        <v>57.6525815285253</v>
+        <v>5.76525815285253</v>
       </c>
       <c r="H11" t="n">
-        <v>2.677962412</v>
+        <v>0.2677962412</v>
       </c>
       <c r="I11" t="n">
+        <v>2.88262907642626</v>
+      </c>
+      <c r="J11" t="n">
         <v>28.8262907642627</v>
       </c>
-      <c r="J11" t="n">
-        <v>288.262907642627</v>
-      </c>
       <c r="K11" t="n">
-        <v>1802.8744163736</v>
+        <v>167.652310139782</v>
       </c>
       <c r="L11" t="n">
-        <v>7760.94200180934</v>
+        <v>801.641494711006</v>
       </c>
       <c r="M11" t="n">
-        <v>4.30476018258671</v>
+        <v>4.78157142029614</v>
       </c>
       <c r="N11" t="n">
         <v>1.2</v>
       </c>
       <c r="O11" t="n">
-        <v>6467.45166817445</v>
+        <v>668.034578925839</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5873001521556</v>
+        <v>3.98464285024678</v>
       </c>
       <c r="Q11" t="n">
         <v>0.115094565144961</v>
@@ -11689,7 +11685,7 @@
         <v>62</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -11698,43 +11694,96 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.51840919</v>
+        <v>0.661849376</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.12432051668461</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8197700425</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17.6484400968784</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10.5241195801938</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.596320100950749</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.75401993003229</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0993866834917915</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0300119515541498</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
         <v>10.7642626480086</v>
       </c>
-      <c r="G2" t="n">
-        <v>5.5802926803014</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.259204595</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.7901463401507</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.7901463401507</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.5802926803014</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.7901463401507</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.232512195012558</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
+      <c r="E3" t="n">
+        <v>0.977690709</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.5241195801938</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4888453545</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.26205979009688</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.5241195801938</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.6484400968784</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10.5241195801938</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.596320100950749</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.75401993003229</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0993866834917915</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0300119515541498</v>
       </c>
     </row>
   </sheetData>
@@ -11809,52 +11858,52 @@
         <v>63</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7642626480086</v>
+        <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.661849376</v>
+        <v>0.01370595293</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-64.5855758880517</v>
       </c>
       <c r="G2" t="n">
-        <v>7.12432051668461</v>
+        <v>0.44260343153929</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8197700425</v>
+        <v>0.047765281895</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-3.0849482386437</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-21.5946376705059</v>
       </c>
       <c r="K2" t="n">
-        <v>17.6484400968784</v>
+        <v>31.8467669336383</v>
       </c>
       <c r="L2" t="n">
-        <v>10.5241195801938</v>
+        <v>72.903413552099</v>
       </c>
       <c r="M2" t="n">
-        <v>0.596320100950749</v>
+        <v>2.28919355311683</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>1.75401993003229</v>
+        <v>42.5269912387244</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0993866834917915</v>
+        <v>1.33536290598482</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0300119515541498</v>
+        <v>0.0364111501320072</v>
       </c>
     </row>
     <row r="3">
@@ -11862,52 +11911,317 @@
         <v>63</v>
       </c>
       <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96.8783638320775</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08182461086</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.92703442131324</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.11068133848</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31.8467669336383</v>
+      </c>
+      <c r="L3" t="n">
+        <v>72.903413552099</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.28919355311683</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O3" t="n">
+        <v>42.5269912387244</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.33536290598482</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0364111501320072</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>96.8783638320775</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1395380661</v>
+      </c>
+      <c r="F4" t="n">
+        <v>59.2034445640474</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.5182195360603</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.111734279645</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.61505423086652</v>
+      </c>
+      <c r="J4" t="n">
+        <v>46.3053796160657</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31.8467669336383</v>
+      </c>
+      <c r="L4" t="n">
+        <v>72.903413552099</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.28919355311683</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O4" t="n">
+        <v>42.5269912387244</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.33536290598482</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0364111501320072</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.6749192680301</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08393049319</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.1463939720129</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.1620745550592</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.076638009635</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.23742749679763</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.66199247758342</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.8467669336383</v>
+      </c>
+      <c r="L5" t="n">
+        <v>72.903413552099</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.28919355311683</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O5" t="n">
+        <v>42.5269912387244</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.33536290598482</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0364111501320072</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.06934552608</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-10.7642626480086</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.4929069123789</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.10625354654</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.14374108223897</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-8.00618757567276</v>
+      </c>
+      <c r="K6" t="n">
+        <v>31.8467669336383</v>
+      </c>
+      <c r="L6" t="n">
+        <v>72.903413552099</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.28919355311683</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O6" t="n">
+        <v>42.5269912387244</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.33536290598482</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0364111501320072</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32.2927879440258</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.143161567</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.62308612486545</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.10320589219</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.22187066071044</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.5530946249731</v>
+      </c>
+      <c r="K7" t="n">
+        <v>31.8467669336383</v>
+      </c>
+      <c r="L7" t="n">
+        <v>72.903413552099</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.28919355311683</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O7" t="n">
+        <v>42.5269912387244</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.33536290598482</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0364111501320072</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
         <v>10.7642626480086</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.977690709</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E8" t="n">
+        <v>0.06325021738</v>
+      </c>
+      <c r="F8" t="n">
         <v>10.7642626480086</v>
       </c>
-      <c r="G3" t="n">
-        <v>10.5241195801938</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.4888453545</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.26205979009688</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10.5241195801938</v>
-      </c>
-      <c r="K3" t="n">
-        <v>17.6484400968784</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10.5241195801938</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.596320100950749</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.75401993003229</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0993866834917915</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0300119515541498</v>
+      <c r="G8" t="n">
+        <v>0.680841952421959</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.03162510869</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.34042097621098</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.38294683347686</v>
+      </c>
+      <c r="K8" t="n">
+        <v>31.8467669336383</v>
+      </c>
+      <c r="L8" t="n">
+        <v>72.903413552099</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.28919355311683</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O8" t="n">
+        <v>42.5269912387244</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.33536290598482</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0364111501320072</v>
       </c>
     </row>
   </sheetData>
@@ -11982,52 +12296,52 @@
         <v>64</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>32.2927879440258</v>
+        <v>187.29817007535</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1370595293</v>
+        <v>0.0204266666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>-64.5855758880517</v>
+        <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4260343153929</v>
+        <v>3.82587728740581</v>
       </c>
       <c r="H2" t="n">
-        <v>0.47765281895</v>
+        <v>0.10079753376381</v>
       </c>
       <c r="I2" t="n">
-        <v>-30.849482386437</v>
+        <v>-1.08501112770516</v>
       </c>
       <c r="J2" t="n">
-        <v>-215.946376705059</v>
+        <v>-5.42505563852581</v>
       </c>
       <c r="K2" t="n">
-        <v>318.467669336383</v>
+        <v>54.996040658278</v>
       </c>
       <c r="L2" t="n">
-        <v>729.03413552099</v>
+        <v>162.038771720212</v>
       </c>
       <c r="M2" t="n">
-        <v>2.28919355311683</v>
+        <v>2.94637158931225</v>
       </c>
       <c r="N2" t="n">
-        <v>1.71428571428571</v>
+        <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>425.269912387244</v>
+        <v>67.5161548834216</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33536290598482</v>
+        <v>1.22765482888011</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0364111501320072</v>
+        <v>0.153305817245025</v>
       </c>
     </row>
     <row r="3">
@@ -12035,52 +12349,52 @@
         <v>64</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>96.8783638320775</v>
+        <v>198.062432723358</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8182461086</v>
+        <v>0.181168400860952</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>130.785791173305</v>
       </c>
       <c r="G3" t="n">
-        <v>79.2703442131324</v>
+        <v>35.8826542071208</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1068133848</v>
+        <v>0.175415668680476</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>22.9418770125704</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.709385062852</v>
       </c>
       <c r="K3" t="n">
-        <v>318.467669336383</v>
+        <v>54.996040658278</v>
       </c>
       <c r="L3" t="n">
-        <v>729.03413552099</v>
+        <v>162.038771720212</v>
       </c>
       <c r="M3" t="n">
-        <v>2.28919355311683</v>
+        <v>2.94637158931225</v>
       </c>
       <c r="N3" t="n">
-        <v>1.71428571428571</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>425.269912387244</v>
+        <v>67.5161548834216</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33536290598482</v>
+        <v>1.22765482888011</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0364111501320072</v>
+        <v>0.153305817245025</v>
       </c>
     </row>
     <row r="4">
@@ -12088,52 +12402,52 @@
         <v>64</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>96.8783638320775</v>
+        <v>67.2766415500538</v>
       </c>
       <c r="E4" t="n">
-        <v>1.395380661</v>
+        <v>0.1696629365</v>
       </c>
       <c r="F4" t="n">
-        <v>59.2034445640474</v>
+        <v>53.8213132400431</v>
       </c>
       <c r="G4" t="n">
-        <v>135.182195360603</v>
+        <v>11.41435256324</v>
       </c>
       <c r="H4" t="n">
-        <v>1.11734279645</v>
+        <v>0.147295877125</v>
       </c>
       <c r="I4" t="n">
-        <v>66.1505423086652</v>
+        <v>7.92765754171152</v>
       </c>
       <c r="J4" t="n">
-        <v>463.053796160657</v>
+        <v>39.6382877085576</v>
       </c>
       <c r="K4" t="n">
-        <v>318.467669336383</v>
+        <v>54.996040658278</v>
       </c>
       <c r="L4" t="n">
-        <v>729.03413552099</v>
+        <v>162.038771720212</v>
       </c>
       <c r="M4" t="n">
-        <v>2.28919355311683</v>
+        <v>2.94637158931225</v>
       </c>
       <c r="N4" t="n">
-        <v>1.71428571428571</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>425.269912387244</v>
+        <v>67.5161548834216</v>
       </c>
       <c r="P4" t="n">
-        <v>1.33536290598482</v>
+        <v>1.22765482888011</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0364111501320072</v>
+        <v>0.153305817245025</v>
       </c>
     </row>
     <row r="5">
@@ -12141,52 +12455,52 @@
         <v>64</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>37.6749192680301</v>
+        <v>13.4553283100108</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8393049319</v>
+        <v>0.12492881775</v>
       </c>
       <c r="F5" t="n">
-        <v>16.1463939720129</v>
+        <v>2.69106566200215</v>
       </c>
       <c r="G5" t="n">
-        <v>31.620745550592</v>
+        <v>1.68095825820775</v>
       </c>
       <c r="H5" t="n">
-        <v>0.76638009635</v>
+        <v>0.164292021875</v>
       </c>
       <c r="I5" t="n">
-        <v>12.3742749679763</v>
+        <v>0.442120618608719</v>
       </c>
       <c r="J5" t="n">
-        <v>86.6199247758342</v>
+        <v>2.2106030930436</v>
       </c>
       <c r="K5" t="n">
-        <v>318.467669336383</v>
+        <v>54.996040658278</v>
       </c>
       <c r="L5" t="n">
-        <v>729.03413552099</v>
+        <v>162.038771720212</v>
       </c>
       <c r="M5" t="n">
-        <v>2.28919355311683</v>
+        <v>2.94637158931225</v>
       </c>
       <c r="N5" t="n">
-        <v>1.71428571428571</v>
+        <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>425.269912387244</v>
+        <v>67.5161548834216</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33536290598482</v>
+        <v>1.22765482888011</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0364111501320072</v>
+        <v>0.153305817245025</v>
       </c>
     </row>
     <row r="6">
@@ -12194,158 +12508,52 @@
         <v>64</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>21.5285252960172</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6934552608</v>
+        <v>0.203655226</v>
       </c>
       <c r="F6" t="n">
-        <v>-10.7642626480086</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>14.929069123789</v>
+        <v>2.19219834230355</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0625354654</v>
+        <v>0.101827613</v>
       </c>
       <c r="I6" t="n">
-        <v>-11.4374108223897</v>
+        <v>1.09609917115178</v>
       </c>
       <c r="J6" t="n">
-        <v>-80.0618757567276</v>
+        <v>5.48049585575888</v>
       </c>
       <c r="K6" t="n">
-        <v>318.467669336383</v>
+        <v>54.996040658278</v>
       </c>
       <c r="L6" t="n">
-        <v>729.03413552099</v>
+        <v>162.038771720212</v>
       </c>
       <c r="M6" t="n">
-        <v>2.28919355311683</v>
+        <v>2.94637158931225</v>
       </c>
       <c r="N6" t="n">
-        <v>1.71428571428571</v>
+        <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>425.269912387244</v>
+        <v>67.5161548834216</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33536290598482</v>
+        <v>1.22765482888011</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0364111501320072</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>32.2927879440258</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.43161567</v>
-      </c>
-      <c r="F7" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="G7" t="n">
-        <v>46.2308612486545</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.0320589219</v>
-      </c>
-      <c r="I7" t="n">
-        <v>22.2187066071044</v>
-      </c>
-      <c r="J7" t="n">
-        <v>155.530946249731</v>
-      </c>
-      <c r="K7" t="n">
-        <v>318.467669336383</v>
-      </c>
-      <c r="L7" t="n">
-        <v>729.03413552099</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.28919355311683</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.71428571428571</v>
-      </c>
-      <c r="O7" t="n">
-        <v>425.269912387244</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.33536290598482</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.0364111501320072</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.6325021738</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.80841952421959</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.3162510869</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.4042097621098</v>
-      </c>
-      <c r="J8" t="n">
-        <v>23.8294683347686</v>
-      </c>
-      <c r="K8" t="n">
-        <v>318.467669336383</v>
-      </c>
-      <c r="L8" t="n">
-        <v>729.03413552099</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.28919355311683</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.71428571428571</v>
-      </c>
-      <c r="O8" t="n">
-        <v>425.269912387244</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.33536290598482</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.0364111501320072</v>
+        <v>0.153305817245025</v>
       </c>
     </row>
   </sheetData>
@@ -12420,52 +12628,52 @@
         <v>65</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>187.29817007535</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0204266666666667</v>
+        <v>0.034117301</v>
       </c>
       <c r="F2" t="n">
-        <v>-10.7642626480086</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.82587728740581</v>
+        <v>0.367247588805167</v>
       </c>
       <c r="H2" t="n">
-        <v>0.10079753376381</v>
+        <v>0.1228759445</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.08501112770516</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.42505563852581</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>54.996040658278</v>
+        <v>61.4217685871905</v>
       </c>
       <c r="L2" t="n">
-        <v>162.038771720212</v>
+        <v>99.4237443487621</v>
       </c>
       <c r="M2" t="n">
-        <v>2.94637158931225</v>
+        <v>1.61870533258296</v>
       </c>
       <c r="N2" t="n">
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>67.5161548834216</v>
+        <v>41.4265601453176</v>
       </c>
       <c r="P2" t="n">
-        <v>1.22765482888011</v>
+        <v>0.674460555242902</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.153305817245025</v>
+        <v>0.166319669955853</v>
       </c>
     </row>
     <row r="3">
@@ -12473,52 +12681,52 @@
         <v>65</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>198.062432723358</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.181168400860952</v>
+        <v>0.211634588</v>
       </c>
       <c r="F3" t="n">
-        <v>130.785791173305</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35.8826542071208</v>
+        <v>2.27809029063509</v>
       </c>
       <c r="H3" t="n">
-        <v>0.175415668680476</v>
+        <v>0.2962408695</v>
       </c>
       <c r="I3" t="n">
-        <v>22.9418770125704</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.709385062852</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.996040658278</v>
+        <v>61.4217685871905</v>
       </c>
       <c r="L3" t="n">
-        <v>162.038771720212</v>
+        <v>99.4237443487621</v>
       </c>
       <c r="M3" t="n">
-        <v>2.94637158931225</v>
+        <v>1.61870533258296</v>
       </c>
       <c r="N3" t="n">
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>67.5161548834216</v>
+        <v>41.4265601453176</v>
       </c>
       <c r="P3" t="n">
-        <v>1.22765482888011</v>
+        <v>0.674460555242902</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.153305817245025</v>
+        <v>0.166319669955853</v>
       </c>
     </row>
     <row r="4">
@@ -12526,52 +12734,52 @@
         <v>65</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>67.2766415500538</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1696629365</v>
+        <v>0.380847151</v>
       </c>
       <c r="F4" t="n">
-        <v>53.8213132400431</v>
+        <v>-5.38213132400431</v>
       </c>
       <c r="G4" t="n">
-        <v>11.41435256324</v>
+        <v>4.0995387621098</v>
       </c>
       <c r="H4" t="n">
-        <v>0.147295877125</v>
+        <v>0.65205588275</v>
       </c>
       <c r="I4" t="n">
-        <v>7.92765754171152</v>
+        <v>-3.50945039155005</v>
       </c>
       <c r="J4" t="n">
-        <v>39.6382877085576</v>
+        <v>-17.5472519577503</v>
       </c>
       <c r="K4" t="n">
-        <v>54.996040658278</v>
+        <v>61.4217685871905</v>
       </c>
       <c r="L4" t="n">
-        <v>162.038771720212</v>
+        <v>99.4237443487621</v>
       </c>
       <c r="M4" t="n">
-        <v>2.94637158931225</v>
+        <v>1.61870533258296</v>
       </c>
       <c r="N4" t="n">
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>67.5161548834216</v>
+        <v>41.4265601453176</v>
       </c>
       <c r="P4" t="n">
-        <v>1.22765482888011</v>
+        <v>0.674460555242902</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.153305817245025</v>
+        <v>0.166319669955853</v>
       </c>
     </row>
     <row r="5">
@@ -12579,52 +12787,52 @@
         <v>65</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>13.4553283100108</v>
+        <v>16.1463939720129</v>
       </c>
       <c r="E5" t="n">
-        <v>0.12492881775</v>
+        <v>0.9232646145</v>
       </c>
       <c r="F5" t="n">
-        <v>2.69106566200215</v>
+        <v>-5.38213132400431</v>
       </c>
       <c r="G5" t="n">
-        <v>1.68095825820775</v>
+        <v>14.9073942061356</v>
       </c>
       <c r="H5" t="n">
-        <v>0.164292021875</v>
+        <v>1.38527889225</v>
       </c>
       <c r="I5" t="n">
-        <v>0.442120618608719</v>
+        <v>-7.45575291846071</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2106030930436</v>
+        <v>-37.2787645923036</v>
       </c>
       <c r="K5" t="n">
-        <v>54.996040658278</v>
+        <v>61.4217685871905</v>
       </c>
       <c r="L5" t="n">
-        <v>162.038771720212</v>
+        <v>99.4237443487621</v>
       </c>
       <c r="M5" t="n">
-        <v>2.94637158931225</v>
+        <v>1.61870533258296</v>
       </c>
       <c r="N5" t="n">
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>67.5161548834216</v>
+        <v>41.4265601453176</v>
       </c>
       <c r="P5" t="n">
-        <v>1.22765482888011</v>
+        <v>0.674460555242902</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.153305817245025</v>
+        <v>0.166319669955853</v>
       </c>
     </row>
     <row r="6">
@@ -12632,52 +12840,52 @@
         <v>65</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>10.7642626480086</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.203655226</v>
+        <v>1.84729317</v>
       </c>
       <c r="F6" t="n">
-        <v>10.7642626480086</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="G6" t="n">
-        <v>2.19219834230355</v>
+        <v>39.7694977395048</v>
       </c>
       <c r="H6" t="n">
-        <v>0.101827613</v>
+        <v>0.923646585</v>
       </c>
       <c r="I6" t="n">
-        <v>1.09609917115178</v>
+        <v>19.8847488697524</v>
       </c>
       <c r="J6" t="n">
-        <v>5.48049585575888</v>
+        <v>99.4237443487621</v>
       </c>
       <c r="K6" t="n">
-        <v>54.996040658278</v>
+        <v>61.4217685871905</v>
       </c>
       <c r="L6" t="n">
-        <v>162.038771720212</v>
+        <v>99.4237443487621</v>
       </c>
       <c r="M6" t="n">
-        <v>2.94637158931225</v>
+        <v>1.61870533258296</v>
       </c>
       <c r="N6" t="n">
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>67.5161548834216</v>
+        <v>41.4265601453176</v>
       </c>
       <c r="P6" t="n">
-        <v>1.22765482888011</v>
+        <v>0.674460555242902</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.153305817245025</v>
+        <v>0.166319669955853</v>
       </c>
     </row>
   </sheetData>
@@ -12761,16 +12969,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.034117301</v>
+        <v>0.056801552</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.367247588805167</v>
+        <v>0.611426824542519</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1228759445</v>
+        <v>1.573901319</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12779,25 +12987,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>61.4217685871905</v>
+        <v>33.8837743595264</v>
       </c>
       <c r="L2" t="n">
-        <v>99.4237443487621</v>
+        <v>33.2723475349839</v>
       </c>
       <c r="M2" t="n">
-        <v>1.61870533258296</v>
+        <v>0.981955173645801</v>
       </c>
       <c r="N2" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>41.4265601453176</v>
+        <v>5.54539125583064</v>
       </c>
       <c r="P2" t="n">
-        <v>0.674460555242902</v>
+        <v>0.163659195607633</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.166319669955853</v>
+        <v>0.399668664417719</v>
       </c>
     </row>
     <row r="3">
@@ -12805,7 +13013,7 @@
         <v>66</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -12814,202 +13022,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211634588</v>
+        <v>3.091001086</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>2.27809029063509</v>
+        <v>33.2723475349839</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2962408695</v>
+        <v>1.545500543</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>16.6361737674919</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>33.2723475349839</v>
       </c>
       <c r="K3" t="n">
-        <v>61.4217685871905</v>
+        <v>33.8837743595264</v>
       </c>
       <c r="L3" t="n">
-        <v>99.4237443487621</v>
+        <v>33.2723475349839</v>
       </c>
       <c r="M3" t="n">
-        <v>1.61870533258296</v>
+        <v>0.981955173645801</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>41.4265601453176</v>
+        <v>5.54539125583064</v>
       </c>
       <c r="P3" t="n">
-        <v>0.674460555242902</v>
+        <v>0.163659195607633</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.166319669955853</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.380847151</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-5.38213132400431</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.0995387621098</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.65205588275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-3.50945039155005</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-17.5472519577503</v>
-      </c>
-      <c r="K4" t="n">
-        <v>61.4217685871905</v>
-      </c>
-      <c r="L4" t="n">
-        <v>99.4237443487621</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.61870533258296</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>41.4265601453176</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.674460555242902</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.166319669955853</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.1463939720129</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9232646145</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-5.38213132400431</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14.9073942061356</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.38527889225</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-7.45575291846071</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-37.2787645923036</v>
-      </c>
-      <c r="K5" t="n">
-        <v>61.4217685871905</v>
-      </c>
-      <c r="L5" t="n">
-        <v>99.4237443487621</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.61870533258296</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>41.4265601453176</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.674460555242902</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.166319669955853</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.84729317</v>
-      </c>
-      <c r="F6" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="G6" t="n">
-        <v>39.7694977395048</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.923646585</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19.8847488697524</v>
-      </c>
-      <c r="J6" t="n">
-        <v>99.4237443487621</v>
-      </c>
-      <c r="K6" t="n">
-        <v>61.4217685871905</v>
-      </c>
-      <c r="L6" t="n">
-        <v>99.4237443487621</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.61870533258296</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>41.4265601453176</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.674460555242902</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.166319669955853</v>
+        <v>0.399668664417719</v>
       </c>
     </row>
   </sheetData>
@@ -13093,16 +13142,16 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0124</v>
+        <v>0.00124</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.266953713670614</v>
+        <v>0.0266953713670614</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0471635322</v>
+        <v>0.00471635322</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -13111,10 +13160,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>16.947343787944</v>
+        <v>1.6947343787944</v>
       </c>
       <c r="L2" t="n">
-        <v>39.0305867079297</v>
+        <v>3.90305867079297</v>
       </c>
       <c r="M2" t="n">
         <v>2.30305038927075</v>
@@ -13123,7 +13172,7 @@
         <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>16.2627444616374</v>
+        <v>1.62627444616374</v>
       </c>
       <c r="P2" t="n">
         <v>0.959604328862812</v>
@@ -13146,28 +13195,28 @@
         <v>21.5285252960172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0819270644</v>
+        <v>0.00819270644</v>
       </c>
       <c r="F3" t="n">
         <v>-10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>1.76376887836383</v>
+        <v>0.176376887836383</v>
       </c>
       <c r="H3" t="n">
-        <v>0.143975750916667</v>
+        <v>0.0143975750916667</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.54979279781127</v>
+        <v>-0.154979279781127</v>
       </c>
       <c r="J3" t="n">
-        <v>-7.74896398905633</v>
+        <v>-0.774896398905633</v>
       </c>
       <c r="K3" t="n">
-        <v>16.947343787944</v>
+        <v>1.6947343787944</v>
       </c>
       <c r="L3" t="n">
-        <v>39.0305867079297</v>
+        <v>3.90305867079297</v>
       </c>
       <c r="M3" t="n">
         <v>2.30305038927075</v>
@@ -13176,7 +13225,7 @@
         <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>16.2627444616374</v>
+        <v>1.62627444616374</v>
       </c>
       <c r="P3" t="n">
         <v>0.959604328862812</v>
@@ -13199,28 +13248,28 @@
         <v>32.2927879440258</v>
       </c>
       <c r="E4" t="n">
-        <v>0.206024437433333</v>
+        <v>0.0206024437433333</v>
       </c>
       <c r="F4" t="n">
         <v>21.5285252960172</v>
       </c>
       <c r="G4" t="n">
-        <v>6.65310346932185</v>
+        <v>0.665310346932185</v>
       </c>
       <c r="H4" t="n">
-        <v>0.238335683916667</v>
+        <v>0.0238335683916667</v>
       </c>
       <c r="I4" t="n">
-        <v>5.13101580014352</v>
+        <v>0.513101580014352</v>
       </c>
       <c r="J4" t="n">
-        <v>25.6550790007176</v>
+        <v>2.56550790007176</v>
       </c>
       <c r="K4" t="n">
-        <v>16.947343787944</v>
+        <v>1.6947343787944</v>
       </c>
       <c r="L4" t="n">
-        <v>39.0305867079297</v>
+        <v>3.90305867079297</v>
       </c>
       <c r="M4" t="n">
         <v>2.30305038927075</v>
@@ -13229,7 +13278,7 @@
         <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>16.2627444616374</v>
+        <v>1.62627444616374</v>
       </c>
       <c r="P4" t="n">
         <v>0.959604328862812</v>
@@ -13252,16 +13301,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2706469304</v>
+        <v>0.02706469304</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.91331464370291</v>
+        <v>0.291331464370291</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3838403984</v>
+        <v>0.03838403984</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -13270,10 +13319,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>16.947343787944</v>
+        <v>1.6947343787944</v>
       </c>
       <c r="L5" t="n">
-        <v>39.0305867079297</v>
+        <v>3.90305867079297</v>
       </c>
       <c r="M5" t="n">
         <v>2.30305038927075</v>
@@ -13282,7 +13331,7 @@
         <v>2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>16.2627444616374</v>
+        <v>1.62627444616374</v>
       </c>
       <c r="P5" t="n">
         <v>0.959604328862812</v>
@@ -13305,28 +13354,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4970338664</v>
+        <v>0.04970338664</v>
       </c>
       <c r="F6" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>5.35020308288482</v>
+        <v>0.535020308288482</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2485169332</v>
+        <v>0.02485169332</v>
       </c>
       <c r="I6" t="n">
-        <v>2.67510154144241</v>
+        <v>0.267510154144241</v>
       </c>
       <c r="J6" t="n">
-        <v>13.3755077072121</v>
+        <v>1.33755077072121</v>
       </c>
       <c r="K6" t="n">
-        <v>16.947343787944</v>
+        <v>1.6947343787944</v>
       </c>
       <c r="L6" t="n">
-        <v>39.0305867079297</v>
+        <v>3.90305867079297</v>
       </c>
       <c r="M6" t="n">
         <v>2.30305038927075</v>
@@ -13335,7 +13384,7 @@
         <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>16.2627444616374</v>
+        <v>1.62627444616374</v>
       </c>
       <c r="P6" t="n">
         <v>0.959604328862812</v>
@@ -13416,7 +13465,7 @@
         <v>67</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -13425,16 +13474,16 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.056801552</v>
+        <v>33.18943913</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.611426824542519</v>
+        <v>357.259839935414</v>
       </c>
       <c r="H2" t="n">
-        <v>1.573901319</v>
+        <v>38.989663435</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -13443,25 +13492,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>33.8837743595264</v>
+        <v>1471.69471270183</v>
       </c>
       <c r="L2" t="n">
-        <v>33.2723475349839</v>
+        <v>948.457135737352</v>
       </c>
       <c r="M2" t="n">
-        <v>0.981955173645801</v>
+        <v>0.644465953129719</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>5.54539125583064</v>
+        <v>237.114283934338</v>
       </c>
       <c r="P2" t="n">
-        <v>0.163659195607633</v>
+        <v>0.16111648828243</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.399668664417719</v>
+        <v>0.0190302709542433</v>
       </c>
     </row>
     <row r="3">
@@ -13469,7 +13518,7 @@
         <v>67</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -13478,43 +13527,96 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>3.091001086</v>
+        <v>44.78988774</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>482.130115608181</v>
+      </c>
+      <c r="H3" t="n">
+        <v>51.76549984</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1471.69471270183</v>
+      </c>
+      <c r="L3" t="n">
+        <v>948.457135737352</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.644465953129719</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>237.114283934338</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.16111648828243</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0190302709542433</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
         <v>10.7642626480086</v>
       </c>
-      <c r="G3" t="n">
-        <v>33.2723475349839</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.545500543</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16.6361737674919</v>
-      </c>
-      <c r="J3" t="n">
-        <v>33.2723475349839</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33.8837743595264</v>
-      </c>
-      <c r="L3" t="n">
-        <v>33.2723475349839</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.981955173645801</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5.54539125583064</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.163659195607633</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.399668664417719</v>
+      <c r="E4" t="n">
+        <v>58.74111194</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G4" t="n">
+        <v>632.304757158235</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29.37055597</v>
+      </c>
+      <c r="I4" t="n">
+        <v>316.152378579117</v>
+      </c>
+      <c r="J4" t="n">
+        <v>948.457135737352</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1471.69471270183</v>
+      </c>
+      <c r="L4" t="n">
+        <v>948.457135737352</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.644465953129719</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>237.114283934338</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.16111648828243</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0190302709542433</v>
       </c>
     </row>
   </sheetData>
@@ -13598,149 +13700,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>33.18943913</v>
+        <v>4.438441747</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>357.259839935414</v>
+        <v>47.7765527125942</v>
       </c>
       <c r="H2" t="n">
-        <v>38.989663435</v>
+        <v>2.2192208735</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>23.8882763562971</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23.8882763562971</v>
       </c>
       <c r="K2" t="n">
-        <v>1471.69471270183</v>
+        <v>47.7765527125942</v>
       </c>
       <c r="L2" t="n">
-        <v>948.457135737352</v>
+        <v>23.8882763562971</v>
       </c>
       <c r="M2" t="n">
-        <v>0.644465953129719</v>
+        <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>237.114283934338</v>
+        <v>1.99068969635809</v>
       </c>
       <c r="P2" t="n">
-        <v>0.16111648828243</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0190302709542433</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E3" t="n">
-        <v>44.78988774</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>482.130115608181</v>
-      </c>
-      <c r="H3" t="n">
-        <v>51.76549984</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1471.69471270183</v>
-      </c>
-      <c r="L3" t="n">
-        <v>948.457135737352</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.644465953129719</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>237.114283934338</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.16111648828243</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0190302709542433</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E4" t="n">
-        <v>58.74111194</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G4" t="n">
-        <v>632.304757158235</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29.37055597</v>
-      </c>
-      <c r="I4" t="n">
-        <v>316.152378579117</v>
-      </c>
-      <c r="J4" t="n">
-        <v>948.457135737352</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1471.69471270183</v>
-      </c>
-      <c r="L4" t="n">
-        <v>948.457135737352</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.644465953129719</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>237.114283934338</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.16111648828243</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0190302709542433</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13815,52 +13811,105 @@
         <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7642626480086</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>4.438441747</v>
+        <v>0.113780644</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>47.7765527125942</v>
+        <v>2.44952947255113</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2192208735</v>
+        <v>0.144593195</v>
       </c>
       <c r="I2" t="n">
-        <v>23.8882763562971</v>
+        <v>1.55643912809473</v>
       </c>
       <c r="J2" t="n">
-        <v>23.8882763562971</v>
+        <v>3.11287825618945</v>
       </c>
       <c r="K2" t="n">
-        <v>47.7765527125942</v>
+        <v>4.33764299246502</v>
       </c>
       <c r="L2" t="n">
-        <v>23.8882763562971</v>
+        <v>5.00099177610334</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5</v>
+        <v>1.15292839562653</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.99068969635809</v>
+        <v>0.833498629350556</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.192154732604421</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.0865658838912778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.175405746</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.88811351991389</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.087702873</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.944056759956943</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.88811351991389</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.33764299246502</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.00099177610334</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.15292839562653</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.833498629350556</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.192154732604421</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0865658838912778</v>
       </c>
     </row>
   </sheetData>
@@ -13941,46 +13990,46 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5285252960172</v>
+        <v>16.1463939720129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.113780644</v>
+        <v>0.0828477735</v>
       </c>
       <c r="F2" t="n">
-        <v>10.7642626480086</v>
+        <v>-30.4987441693577</v>
       </c>
       <c r="G2" t="n">
-        <v>2.44952947255113</v>
+        <v>1.33769279063509</v>
       </c>
       <c r="H2" t="n">
-        <v>0.144593195</v>
+        <v>0.36852950825</v>
       </c>
       <c r="I2" t="n">
-        <v>1.55643912809473</v>
+        <v>-11.239687190976</v>
       </c>
       <c r="J2" t="n">
-        <v>3.11287825618945</v>
+        <v>-67.4381231458558</v>
       </c>
       <c r="K2" t="n">
-        <v>4.33764299246502</v>
+        <v>158.818670113922</v>
       </c>
       <c r="L2" t="n">
-        <v>5.00099177610334</v>
+        <v>314.029182583423</v>
       </c>
       <c r="M2" t="n">
-        <v>1.15292839562653</v>
+        <v>1.97728127529445</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>0.833498629350556</v>
+        <v>157.014591291712</v>
       </c>
       <c r="P2" t="n">
-        <v>0.192154732604421</v>
+        <v>0.988640637647223</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0865658838912778</v>
+        <v>0.109137794023595</v>
       </c>
     </row>
     <row r="3">
@@ -13994,46 +14043,258 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
+        <v>46.6451381413707</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.654211243</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14.3523501973448</v>
+      </c>
+      <c r="G3" t="n">
+        <v>30.5157738033728</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7893112525</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.3284715105849</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67.9708290635091</v>
+      </c>
+      <c r="K3" t="n">
+        <v>158.818670113922</v>
+      </c>
+      <c r="L3" t="n">
+        <v>314.029182583423</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.97728127529445</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>157.014591291712</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.988640637647223</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.109137794023595</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.2927879440258</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.924411262</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.8518168568353</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.73015381</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.7191347685684</v>
+      </c>
+      <c r="J4" t="n">
+        <v>94.3148086114101</v>
+      </c>
+      <c r="K4" t="n">
+        <v>158.818670113922</v>
+      </c>
+      <c r="L4" t="n">
+        <v>314.029182583423</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.97728127529445</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>157.014591291712</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.988640637647223</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.109137794023595</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
         <v>10.7642626480086</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.175405746</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E5" t="n">
+        <v>0.535896358</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.76852914962325</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.1614209235</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>158.818670113922</v>
+      </c>
+      <c r="L5" t="n">
+        <v>314.029182583423</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.97728127529445</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>157.014591291712</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.988640637647223</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.109137794023595</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
         <v>10.7642626480086</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.88811351991389</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.087702873</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.944056759956943</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.88811351991389</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.33764299246502</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.00099177610334</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.15292839562653</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.833498629350556</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.192154732604421</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0865658838912778</v>
+      <c r="E6" t="n">
+        <v>3.786945489</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40.7636758772874</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.2429686315</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>158.818670113922</v>
+      </c>
+      <c r="L6" t="n">
+        <v>314.029182583423</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.97728127529445</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>157.014591291712</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.988640637647223</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.109137794023595</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.698991774</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50.5811816361679</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.349495887</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25.290590818084</v>
+      </c>
+      <c r="J7" t="n">
+        <v>151.743544908504</v>
+      </c>
+      <c r="K7" t="n">
+        <v>158.818670113922</v>
+      </c>
+      <c r="L7" t="n">
+        <v>314.029182583423</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.97728127529445</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>157.014591291712</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.988640637647223</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.109137794023595</v>
       </c>
     </row>
   </sheetData>
@@ -14108,52 +14369,52 @@
         <v>71</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>16.1463939720129</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0828477735</v>
+        <v>0.195903587</v>
       </c>
       <c r="F2" t="n">
-        <v>-30.4987441693577</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33769279063509</v>
+        <v>2.10875766415501</v>
       </c>
       <c r="H2" t="n">
-        <v>0.36852950825</v>
+        <v>0.2811996055</v>
       </c>
       <c r="I2" t="n">
-        <v>-11.239687190976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-67.4381231458558</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>158.818670113922</v>
+        <v>6.05381282023681</v>
       </c>
       <c r="L2" t="n">
-        <v>314.029182583423</v>
+        <v>3.94505515608181</v>
       </c>
       <c r="M2" t="n">
-        <v>1.97728127529445</v>
+        <v>0.651664541542182</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>157.014591291712</v>
+        <v>0.657509192680302</v>
       </c>
       <c r="P2" t="n">
-        <v>0.988640637647223</v>
+        <v>0.108610756923697</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.109137794023595</v>
+        <v>0.0695959940152686</v>
       </c>
     </row>
     <row r="3">
@@ -14161,264 +14422,52 @@
         <v>71</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>46.6451381413707</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.654211243</v>
+        <v>0.366495624</v>
       </c>
       <c r="F3" t="n">
-        <v>14.3523501973448</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G3" t="n">
-        <v>30.5157738033728</v>
+        <v>3.94505515608181</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7893112525</v>
+        <v>0.183247812</v>
       </c>
       <c r="I3" t="n">
-        <v>11.3284715105849</v>
+        <v>1.9725275780409</v>
       </c>
       <c r="J3" t="n">
-        <v>67.9708290635091</v>
+        <v>3.94505515608181</v>
       </c>
       <c r="K3" t="n">
-        <v>158.818670113922</v>
+        <v>6.05381282023681</v>
       </c>
       <c r="L3" t="n">
-        <v>314.029182583423</v>
+        <v>3.94505515608181</v>
       </c>
       <c r="M3" t="n">
-        <v>1.97728127529445</v>
+        <v>0.651664541542182</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>157.014591291712</v>
+        <v>0.657509192680302</v>
       </c>
       <c r="P3" t="n">
-        <v>0.988640637647223</v>
+        <v>0.108610756923697</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.109137794023595</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.2927879440258</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.924411262</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29.8518168568353</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.73015381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15.7191347685684</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94.3148086114101</v>
-      </c>
-      <c r="K4" t="n">
-        <v>158.818670113922</v>
-      </c>
-      <c r="L4" t="n">
-        <v>314.029182583423</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.97728127529445</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>157.014591291712</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.988640637647223</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.109137794023595</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.535896358</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.76852914962325</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.1614209235</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>158.818670113922</v>
-      </c>
-      <c r="L5" t="n">
-        <v>314.029182583423</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.97728127529445</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>157.014591291712</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.988640637647223</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.109137794023595</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.786945489</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40.7636758772874</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.2429686315</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>158.818670113922</v>
-      </c>
-      <c r="L6" t="n">
-        <v>314.029182583423</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.97728127529445</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>157.014591291712</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.988640637647223</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.109137794023595</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.698991774</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50.5811816361679</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.349495887</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25.290590818084</v>
-      </c>
-      <c r="J7" t="n">
-        <v>151.743544908504</v>
-      </c>
-      <c r="K7" t="n">
-        <v>158.818670113922</v>
-      </c>
-      <c r="L7" t="n">
-        <v>314.029182583423</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.97728127529445</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>157.014591291712</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.988640637647223</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.109137794023595</v>
+        <v>0.0695959940152686</v>
       </c>
     </row>
   </sheetData>
@@ -14499,19 +14548,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7642626480086</v>
+        <v>32.2927879440258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.195903587</v>
+        <v>10.509295699</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.10875766415501</v>
+        <v>339.37445744887</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2811996055</v>
+        <v>19.676161697</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -14520,25 +14569,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.05381282023681</v>
+        <v>1270.79623446717</v>
       </c>
       <c r="L2" t="n">
-        <v>3.94505515608181</v>
+        <v>931.421777018299</v>
       </c>
       <c r="M2" t="n">
-        <v>0.651664541542182</v>
+        <v>0.732943450535824</v>
       </c>
       <c r="N2" t="n">
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.657509192680302</v>
+        <v>155.236962836383</v>
       </c>
       <c r="P2" t="n">
-        <v>0.108610756923697</v>
+        <v>0.122157241755971</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0695959940152686</v>
+        <v>0.100960811921697</v>
       </c>
     </row>
     <row r="3">
@@ -14546,52 +14595,52 @@
         <v>72</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7642626480086</v>
+        <v>32.2927879440258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.366495624</v>
+        <v>28.843027695</v>
       </c>
       <c r="F3" t="n">
-        <v>10.7642626480086</v>
+        <v>32.2927879440258</v>
       </c>
       <c r="G3" t="n">
-        <v>3.94505515608181</v>
+        <v>931.421777018299</v>
       </c>
       <c r="H3" t="n">
-        <v>0.183247812</v>
+        <v>14.4215138475</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9725275780409</v>
+        <v>465.71088850915</v>
       </c>
       <c r="J3" t="n">
-        <v>3.94505515608181</v>
+        <v>931.421777018299</v>
       </c>
       <c r="K3" t="n">
-        <v>6.05381282023681</v>
+        <v>1270.79623446717</v>
       </c>
       <c r="L3" t="n">
-        <v>3.94505515608181</v>
+        <v>931.421777018299</v>
       </c>
       <c r="M3" t="n">
-        <v>0.651664541542182</v>
+        <v>0.732943450535824</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.657509192680302</v>
+        <v>155.236962836383</v>
       </c>
       <c r="P3" t="n">
-        <v>0.108610756923697</v>
+        <v>0.122157241755971</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0695959940152686</v>
+        <v>0.100960811921697</v>
       </c>
     </row>
   </sheetData>
@@ -14666,52 +14715,52 @@
         <v>73</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>32.2927879440258</v>
+        <v>69.967707212056</v>
       </c>
       <c r="E2" t="n">
-        <v>10.509295699</v>
+        <v>0.39235071</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-16.1463939720129</v>
       </c>
       <c r="G2" t="n">
-        <v>339.37445744887</v>
+        <v>27.4518796017223</v>
       </c>
       <c r="H2" t="n">
-        <v>19.676161697</v>
+        <v>0.87613075475</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-14.1463523371905</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-183.902580383477</v>
       </c>
       <c r="K2" t="n">
-        <v>1270.79623446717</v>
+        <v>4430.00754612905</v>
       </c>
       <c r="L2" t="n">
-        <v>931.421777018299</v>
+        <v>13996.3674420237</v>
       </c>
       <c r="M2" t="n">
-        <v>0.732943450535824</v>
+        <v>3.15944550800003</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="O2" t="n">
-        <v>155.236962836383</v>
+        <v>15162.7313955257</v>
       </c>
       <c r="P2" t="n">
-        <v>0.122157241755971</v>
+        <v>3.4227326336667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.100960811921697</v>
+        <v>0.0410820336763865</v>
       </c>
     </row>
     <row r="3">
@@ -14719,52 +14768,635 @@
         <v>73</v>
       </c>
       <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>86.1141011840689</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.3599107995</v>
+      </c>
+      <c r="F3" t="n">
+        <v>64.5855758880517</v>
+      </c>
+      <c r="G3" t="n">
+        <v>117.107496189451</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.16101502275</v>
+      </c>
+      <c r="I3" t="n">
+        <v>74.9848238589881</v>
+      </c>
+      <c r="J3" t="n">
+        <v>974.802710166846</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0410820336763865</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.962119246</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-48.4391819160387</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20.713008525296</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.2839032055</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-159.069584765877</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-2067.9046019564</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0410820336763865</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.967707212056</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.605687165</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.38213132400429</v>
+      </c>
+      <c r="G5" t="n">
+        <v>392.2170782831</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.97129645</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37.5204329924649</v>
+      </c>
+      <c r="J5" t="n">
+        <v>487.765628902044</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.0410820336763865</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64.5855758880517</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.336905735</v>
+      </c>
+      <c r="F6" t="n">
         <v>32.2927879440258</v>
       </c>
-      <c r="E3" t="n">
-        <v>28.843027695</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="G6" t="n">
+        <v>538.443858019376</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.287900515</v>
+      </c>
+      <c r="I6" t="n">
+        <v>235.346625888052</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3059.50613654467</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L6" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0410820336763865</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
         <v>32.2927879440258</v>
       </c>
-      <c r="G3" t="n">
-        <v>931.421777018299</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14.4215138475</v>
-      </c>
-      <c r="I3" t="n">
-        <v>465.71088850915</v>
-      </c>
-      <c r="J3" t="n">
-        <v>931.421777018299</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1270.79623446717</v>
-      </c>
-      <c r="L3" t="n">
-        <v>931.421777018299</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.732943450535824</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>155.236962836383</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.122157241755971</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.100960811921697</v>
+      <c r="E7" t="n">
+        <v>6.238895295</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.17617509867241</v>
+      </c>
+      <c r="G7" t="n">
+        <v>201.471322766416</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.56009502533333</v>
+      </c>
+      <c r="I7" t="n">
+        <v>47.0763905657218</v>
+      </c>
+      <c r="J7" t="n">
+        <v>611.993077354384</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O7" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0410820336763865</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.1166128453534</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.88129475566667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.3523501973448</v>
+      </c>
+      <c r="G8" t="n">
+        <v>172.834816252841</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.44732856283333</v>
+      </c>
+      <c r="I8" t="n">
+        <v>78.181967173783</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1016.36557325918</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0410820336763865</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.01336237</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-10.7642626480086</v>
+      </c>
+      <c r="G9" t="n">
+        <v>43.2008866523143</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.29368921</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-78.5111863293864</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1020.64542228202</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L9" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0410820336763865</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.57401605</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-10.7642626480086</v>
+      </c>
+      <c r="G10" t="n">
+        <v>227.642972012917</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.463181295</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-166.449744833154</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-2163.846682831</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0410820336763865</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>32.2927879440258</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20.35234654</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+      <c r="G11" t="n">
+        <v>657.234010979548</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22.9534814075</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.000000000000163094294745036</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.00000000000212022583168547</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0410820336763865</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="n">
+        <v>32.2927879440258</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25.554616275</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="G12" t="n">
+        <v>825.229804359526</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25.5264487475</v>
+      </c>
+      <c r="I12" t="n">
+        <v>274.773398789021</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3572.05418425727</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O12" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0410820336763865</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E13" t="n">
+        <v>25.49828122</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>548.940392249731</v>
+      </c>
+      <c r="H13" t="n">
+        <v>28.02004308</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O13" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.0410820336763865</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E14" t="n">
+        <v>30.54180494</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="G14" t="n">
+        <v>657.520020236814</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15.27090247</v>
+      </c>
+      <c r="I14" t="n">
+        <v>328.760010118407</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4273.88013153929</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4430.00754612905</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13996.3674420237</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.15944550800003</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="O14" t="n">
+        <v>15162.7313955257</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.4227326336667</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0410820336763865</v>
       </c>
     </row>
   </sheetData>
@@ -14839,52 +15471,52 @@
         <v>74</v>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.7642626480086</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.104413347685684</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1215330495</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>243.061980624327</v>
+      </c>
+      <c r="L2" t="n">
+        <v>660.860214122713</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.71889586526544</v>
+      </c>
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>69.967707212056</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.39235071</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-16.1463939720129</v>
-      </c>
-      <c r="G2" t="n">
-        <v>27.4518796017223</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.87613075475</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-14.1463523371905</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-183.902580383477</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4430.00754612905</v>
-      </c>
-      <c r="L2" t="n">
-        <v>13996.3674420237</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.15944550800003</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.923076923076923</v>
-      </c>
       <c r="O2" t="n">
-        <v>15162.7313955257</v>
+        <v>330.430107061356</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4227326336667</v>
+        <v>1.35944793263272</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0410820336763865</v>
+        <v>0.243329117773098</v>
       </c>
     </row>
     <row r="3">
@@ -14898,46 +15530,46 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>86.1141011840689</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3599107995</v>
+        <v>0.233366099</v>
       </c>
       <c r="F3" t="n">
-        <v>64.5855758880517</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>117.107496189451</v>
+        <v>2.51201398277718</v>
       </c>
       <c r="H3" t="n">
-        <v>1.16101502275</v>
+        <v>0.385035406</v>
       </c>
       <c r="I3" t="n">
-        <v>74.9848238589881</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>974.802710166846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4430.00754612905</v>
+        <v>243.061980624327</v>
       </c>
       <c r="L3" t="n">
-        <v>13996.3674420237</v>
+        <v>660.860214122713</v>
       </c>
       <c r="M3" t="n">
-        <v>3.15944550800003</v>
+        <v>2.71889586526544</v>
       </c>
       <c r="N3" t="n">
-        <v>0.923076923076923</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>15162.7313955257</v>
+        <v>330.430107061356</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4227326336667</v>
+        <v>1.35944793263272</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0410820336763865</v>
+        <v>0.243329117773098</v>
       </c>
     </row>
     <row r="4">
@@ -14951,46 +15583,46 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>21.5285252960172</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.962119246</v>
+        <v>0.536704713</v>
       </c>
       <c r="F4" t="n">
-        <v>-48.4391819160387</v>
+        <v>-21.5285252960172</v>
       </c>
       <c r="G4" t="n">
-        <v>20.713008525296</v>
+        <v>5.77723049515608</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2839032055</v>
+        <v>1.804316778</v>
       </c>
       <c r="I4" t="n">
-        <v>-159.069584765877</v>
+        <v>-38.8442793972013</v>
       </c>
       <c r="J4" t="n">
-        <v>-2067.9046019564</v>
+        <v>-233.065676383208</v>
       </c>
       <c r="K4" t="n">
-        <v>4430.00754612905</v>
+        <v>243.061980624327</v>
       </c>
       <c r="L4" t="n">
-        <v>13996.3674420237</v>
+        <v>660.860214122713</v>
       </c>
       <c r="M4" t="n">
-        <v>3.15944550800003</v>
+        <v>2.71889586526544</v>
       </c>
       <c r="N4" t="n">
-        <v>0.923076923076923</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>15162.7313955257</v>
+        <v>330.430107061356</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4227326336667</v>
+        <v>1.35944793263272</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0410820336763865</v>
+        <v>0.243329117773098</v>
       </c>
     </row>
     <row r="5">
@@ -15004,46 +15636,46 @@
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>69.967707212056</v>
+        <v>32.2927879440258</v>
       </c>
       <c r="E5" t="n">
-        <v>5.605687165</v>
+        <v>3.071928843</v>
       </c>
       <c r="F5" t="n">
-        <v>5.38213132400429</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="G5" t="n">
-        <v>392.2170782831</v>
+        <v>99.2011467061356</v>
       </c>
       <c r="H5" t="n">
-        <v>6.97129645</v>
+        <v>2.403904231</v>
       </c>
       <c r="I5" t="n">
-        <v>37.5204329924649</v>
+        <v>51.7525130462863</v>
       </c>
       <c r="J5" t="n">
-        <v>487.765628902044</v>
+        <v>310.515078277718</v>
       </c>
       <c r="K5" t="n">
-        <v>4430.00754612905</v>
+        <v>243.061980624327</v>
       </c>
       <c r="L5" t="n">
-        <v>13996.3674420237</v>
+        <v>660.860214122713</v>
       </c>
       <c r="M5" t="n">
-        <v>3.15944550800003</v>
+        <v>2.71889586526544</v>
       </c>
       <c r="N5" t="n">
-        <v>0.923076923076923</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>15162.7313955257</v>
+        <v>330.430107061356</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4227326336667</v>
+        <v>1.35944793263272</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0410820336763865</v>
+        <v>0.243329117773098</v>
       </c>
     </row>
     <row r="6">
@@ -15057,46 +15689,46 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>64.5855758880517</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>8.336905735</v>
+        <v>1.735879619</v>
       </c>
       <c r="F6" t="n">
-        <v>32.2927879440258</v>
+        <v>-10.7642626480086</v>
       </c>
       <c r="G6" t="n">
-        <v>538.443858019376</v>
+        <v>18.6854641442411</v>
       </c>
       <c r="H6" t="n">
-        <v>7.287900515</v>
+        <v>3.5801950695</v>
       </c>
       <c r="I6" t="n">
-        <v>235.346625888052</v>
+        <v>-38.5381600592034</v>
       </c>
       <c r="J6" t="n">
-        <v>3059.50613654467</v>
+        <v>-231.228960355221</v>
       </c>
       <c r="K6" t="n">
-        <v>4430.00754612905</v>
+        <v>243.061980624327</v>
       </c>
       <c r="L6" t="n">
-        <v>13996.3674420237</v>
+        <v>660.860214122713</v>
       </c>
       <c r="M6" t="n">
-        <v>3.15944550800003</v>
+        <v>2.71889586526544</v>
       </c>
       <c r="N6" t="n">
-        <v>0.923076923076923</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>15162.7313955257</v>
+        <v>330.430107061356</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4227326336667</v>
+        <v>1.35944793263272</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0410820336763865</v>
+        <v>0.243329117773098</v>
       </c>
     </row>
     <row r="7">
@@ -15110,417 +15742,46 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>32.2927879440258</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="E7" t="n">
-        <v>6.238895295</v>
+        <v>5.42451052</v>
       </c>
       <c r="F7" t="n">
-        <v>7.17617509867241</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="G7" t="n">
-        <v>201.471322766416</v>
+        <v>116.781711948332</v>
       </c>
       <c r="H7" t="n">
-        <v>6.56009502533333</v>
+        <v>2.71225526</v>
       </c>
       <c r="I7" t="n">
-        <v>47.0763905657218</v>
+        <v>58.3908559741658</v>
       </c>
       <c r="J7" t="n">
-        <v>611.993077354384</v>
+        <v>350.345135844995</v>
       </c>
       <c r="K7" t="n">
-        <v>4430.00754612905</v>
+        <v>243.061980624327</v>
       </c>
       <c r="L7" t="n">
-        <v>13996.3674420237</v>
+        <v>660.860214122713</v>
       </c>
       <c r="M7" t="n">
-        <v>3.15944550800003</v>
+        <v>2.71889586526544</v>
       </c>
       <c r="N7" t="n">
-        <v>0.923076923076923</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>15162.7313955257</v>
+        <v>330.430107061356</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4227326336667</v>
+        <v>1.35944793263272</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0410820336763865</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25.1166128453534</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.88129475566667</v>
-      </c>
-      <c r="F8" t="n">
-        <v>14.3523501973448</v>
-      </c>
-      <c r="G8" t="n">
-        <v>172.834816252841</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.44732856283333</v>
-      </c>
-      <c r="I8" t="n">
-        <v>78.181967173783</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1016.36557325918</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4430.00754612905</v>
-      </c>
-      <c r="L8" t="n">
-        <v>13996.3674420237</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.15944550800003</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="O8" t="n">
-        <v>15162.7313955257</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4227326336667</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.0410820336763865</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.01336237</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-10.7642626480086</v>
-      </c>
-      <c r="G9" t="n">
-        <v>43.2008866523143</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.29368921</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-78.5111863293864</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-1020.64542228202</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4430.00754612905</v>
-      </c>
-      <c r="L9" t="n">
-        <v>13996.3674420237</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.15944550800003</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="O9" t="n">
-        <v>15162.7313955257</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.4227326336667</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.0410820336763865</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10.57401605</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-10.7642626480086</v>
-      </c>
-      <c r="G10" t="n">
-        <v>227.642972012917</v>
-      </c>
-      <c r="H10" t="n">
-        <v>15.463181295</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-166.449744833154</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-2163.846682831</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4430.00754612905</v>
-      </c>
-      <c r="L10" t="n">
-        <v>13996.3674420237</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.15944550800003</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="O10" t="n">
-        <v>15162.7313955257</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.4227326336667</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0410820336763865</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="n">
-        <v>32.2927879440258</v>
-      </c>
-      <c r="E11" t="n">
-        <v>20.35234654</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.000000000000007105427357601</v>
-      </c>
-      <c r="G11" t="n">
-        <v>657.234010979548</v>
-      </c>
-      <c r="H11" t="n">
-        <v>22.9534814075</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-0.000000000000163094294745036</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-0.00000000000212022583168547</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4430.00754612905</v>
-      </c>
-      <c r="L11" t="n">
-        <v>13996.3674420237</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3.15944550800003</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="O11" t="n">
-        <v>15162.7313955257</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.4227326336667</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.0410820336763865</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="n">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="n">
-        <v>32.2927879440258</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25.554616275</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="G12" t="n">
-        <v>825.229804359526</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25.5264487475</v>
-      </c>
-      <c r="I12" t="n">
-        <v>274.773398789021</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3572.05418425727</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4430.00754612905</v>
-      </c>
-      <c r="L12" t="n">
-        <v>13996.3674420237</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3.15944550800003</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="O12" t="n">
-        <v>15162.7313955257</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.4227326336667</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.0410820336763865</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="n">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="E13" t="n">
-        <v>25.49828122</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>548.940392249731</v>
-      </c>
-      <c r="H13" t="n">
-        <v>28.02004308</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4430.00754612905</v>
-      </c>
-      <c r="L13" t="n">
-        <v>13996.3674420237</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.15944550800003</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="O13" t="n">
-        <v>15162.7313955257</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.4227326336667</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.0410820336763865</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="n">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="E14" t="n">
-        <v>30.54180494</v>
-      </c>
-      <c r="F14" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="G14" t="n">
-        <v>657.520020236814</v>
-      </c>
-      <c r="H14" t="n">
-        <v>15.27090247</v>
-      </c>
-      <c r="I14" t="n">
-        <v>328.760010118407</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4273.88013153929</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4430.00754612905</v>
-      </c>
-      <c r="L14" t="n">
-        <v>13996.3674420237</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.15944550800003</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="O14" t="n">
-        <v>15162.7313955257</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4227326336667</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.0410820336763865</v>
+        <v>0.243329117773098</v>
       </c>
     </row>
   </sheetData>
@@ -15604,43 +15865,43 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0097</v>
+        <v>0.0067</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.104413347685684</v>
+        <v>0.0721205597416577</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1215330495</v>
+        <v>0.047219948</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0.508287922497309</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-2.03315168998924</v>
       </c>
       <c r="K2" t="n">
-        <v>243.061980624327</v>
+        <v>27.7336745748116</v>
       </c>
       <c r="L2" t="n">
-        <v>660.860214122713</v>
+        <v>58.7571613562971</v>
       </c>
       <c r="M2" t="n">
-        <v>2.71889586526544</v>
+        <v>2.11862157673335</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>330.430107061356</v>
+        <v>19.585720452099</v>
       </c>
       <c r="P2" t="n">
-        <v>1.35944793263272</v>
+        <v>0.706207192244451</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.243329117773098</v>
+        <v>0.375824401174092</v>
       </c>
     </row>
     <row r="3">
@@ -15648,52 +15909,52 @@
         <v>75</v>
       </c>
       <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.5285252960172</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.087739896</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-21.5285252960172</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.88891057050592</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3072485695</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-6.61460860064586</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-26.4584344025834</v>
+      </c>
+      <c r="K3" t="n">
+        <v>27.7336745748116</v>
+      </c>
+      <c r="L3" t="n">
+        <v>58.7571613562971</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.11862157673335</v>
+      </c>
+      <c r="N3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.233366099</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.51201398277718</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.385035406</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>243.061980624327</v>
-      </c>
-      <c r="L3" t="n">
-        <v>660.860214122713</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.71889586526544</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
       <c r="O3" t="n">
-        <v>330.430107061356</v>
+        <v>19.585720452099</v>
       </c>
       <c r="P3" t="n">
-        <v>1.35944793263272</v>
+        <v>0.706207192244451</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.243329117773098</v>
+        <v>0.375824401174092</v>
       </c>
     </row>
     <row r="4">
@@ -15701,52 +15962,52 @@
         <v>75</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7642626480086</v>
+        <v>43.0570505920345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.536704713</v>
+        <v>0.526757243</v>
       </c>
       <c r="F4" t="n">
-        <v>-21.5285252960172</v>
+        <v>32.2927879440258</v>
       </c>
       <c r="G4" t="n">
-        <v>5.77723049515608</v>
+        <v>22.6806132615716</v>
       </c>
       <c r="H4" t="n">
-        <v>1.804316778</v>
+        <v>0.4070034235</v>
       </c>
       <c r="I4" t="n">
-        <v>-38.8442793972013</v>
+        <v>13.143275247578</v>
       </c>
       <c r="J4" t="n">
-        <v>-233.065676383208</v>
+        <v>52.5731009903122</v>
       </c>
       <c r="K4" t="n">
-        <v>243.061980624327</v>
+        <v>27.7336745748116</v>
       </c>
       <c r="L4" t="n">
-        <v>660.860214122713</v>
+        <v>58.7571613562971</v>
       </c>
       <c r="M4" t="n">
-        <v>2.71889586526544</v>
+        <v>2.11862157673335</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>330.430107061356</v>
+        <v>19.585720452099</v>
       </c>
       <c r="P4" t="n">
-        <v>1.35944793263272</v>
+        <v>0.706207192244451</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.243329117773098</v>
+        <v>0.375824401174092</v>
       </c>
     </row>
     <row r="5">
@@ -15754,158 +16015,52 @@
         <v>75</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>32.2927879440258</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E5" t="n">
-        <v>3.071928843</v>
+        <v>0.287249604</v>
       </c>
       <c r="F5" t="n">
-        <v>21.5285252960172</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="G5" t="n">
-        <v>99.2011467061356</v>
+        <v>3.09203018299247</v>
       </c>
       <c r="H5" t="n">
-        <v>2.403904231</v>
+        <v>0.143624802</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7525130462863</v>
+        <v>1.54601509149623</v>
       </c>
       <c r="J5" t="n">
-        <v>310.515078277718</v>
+        <v>6.18406036598493</v>
       </c>
       <c r="K5" t="n">
-        <v>243.061980624327</v>
+        <v>27.7336745748116</v>
       </c>
       <c r="L5" t="n">
-        <v>660.860214122713</v>
+        <v>58.7571613562971</v>
       </c>
       <c r="M5" t="n">
-        <v>2.71889586526544</v>
+        <v>2.11862157673335</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>330.430107061356</v>
+        <v>19.585720452099</v>
       </c>
       <c r="P5" t="n">
-        <v>1.35944793263272</v>
+        <v>0.706207192244451</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.243329117773098</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.7642626480086</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.735879619</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-10.7642626480086</v>
-      </c>
-      <c r="G6" t="n">
-        <v>18.6854641442411</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.5801950695</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-38.5381600592034</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-231.228960355221</v>
-      </c>
-      <c r="K6" t="n">
-        <v>243.061980624327</v>
-      </c>
-      <c r="L6" t="n">
-        <v>660.860214122713</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.71889586526544</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>330.430107061356</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.35944793263272</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.243329117773098</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.42451052</v>
-      </c>
-      <c r="F7" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="G7" t="n">
-        <v>116.781711948332</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.71225526</v>
-      </c>
-      <c r="I7" t="n">
-        <v>58.3908559741658</v>
-      </c>
-      <c r="J7" t="n">
-        <v>350.345135844995</v>
-      </c>
-      <c r="K7" t="n">
-        <v>243.061980624327</v>
-      </c>
-      <c r="L7" t="n">
-        <v>660.860214122713</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.71889586526544</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>330.430107061356</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.35944793263272</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.243329117773098</v>
+        <v>0.375824401174092</v>
       </c>
     </row>
   </sheetData>
@@ -15986,46 +16141,46 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7642626480086</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0067</v>
+        <v>0.0076</v>
       </c>
       <c r="F2" t="n">
-        <v>-10.7642626480086</v>
+        <v>-199.138858988159</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0721205597416577</v>
+        <v>0.163616792249731</v>
       </c>
       <c r="H2" t="n">
-        <v>0.047219948</v>
+        <v>0.0427662025</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.508287922497309</v>
+        <v>-8.51641276910657</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.03315168998924</v>
+        <v>-59.614889383746</v>
       </c>
       <c r="K2" t="n">
-        <v>27.7336745748116</v>
+        <v>146.813264920153</v>
       </c>
       <c r="L2" t="n">
-        <v>58.7571613562971</v>
+        <v>410.893579005521</v>
       </c>
       <c r="M2" t="n">
-        <v>2.11862157673335</v>
+        <v>2.79874968538431</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="O2" t="n">
-        <v>19.585720452099</v>
+        <v>239.687921086554</v>
       </c>
       <c r="P2" t="n">
-        <v>0.706207192244451</v>
+        <v>1.63260398314085</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.375824401174092</v>
+        <v>0.03276636832656</v>
       </c>
     </row>
     <row r="3">
@@ -16039,46 +16194,46 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>21.5285252960172</v>
+        <v>220.667384284177</v>
       </c>
       <c r="E3" t="n">
-        <v>0.087739896</v>
+        <v>0.077932405</v>
       </c>
       <c r="F3" t="n">
-        <v>-21.5285252960172</v>
+        <v>-357.911733046286</v>
       </c>
       <c r="G3" t="n">
-        <v>1.88891057050592</v>
+        <v>17.1971399623251</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3072485695</v>
+        <v>0.141158542375</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.61460860064586</v>
+        <v>-50.5222985357239</v>
       </c>
       <c r="J3" t="n">
-        <v>-26.4584344025834</v>
+        <v>-353.656089750067</v>
       </c>
       <c r="K3" t="n">
-        <v>27.7336745748116</v>
+        <v>146.813264920153</v>
       </c>
       <c r="L3" t="n">
-        <v>58.7571613562971</v>
+        <v>410.893579005521</v>
       </c>
       <c r="M3" t="n">
-        <v>2.11862157673335</v>
+        <v>2.79874968538431</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="O3" t="n">
-        <v>19.585720452099</v>
+        <v>239.687921086554</v>
       </c>
       <c r="P3" t="n">
-        <v>0.706207192244451</v>
+        <v>1.63260398314085</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.375824401174092</v>
+        <v>0.03276636832656</v>
       </c>
     </row>
     <row r="4">
@@ -16092,46 +16247,46 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>43.0570505920345</v>
+        <v>578.579117330463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.526757243</v>
+        <v>0.20438467975</v>
       </c>
       <c r="F4" t="n">
-        <v>32.2927879440258</v>
+        <v>417.115177610334</v>
       </c>
       <c r="G4" t="n">
-        <v>22.6806132615716</v>
+        <v>118.252707605624</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4070034235</v>
+        <v>0.129606799791667</v>
       </c>
       <c r="I4" t="n">
-        <v>13.143275247578</v>
+        <v>54.060963314608</v>
       </c>
       <c r="J4" t="n">
-        <v>52.5731009903122</v>
+        <v>378.426743202256</v>
       </c>
       <c r="K4" t="n">
-        <v>27.7336745748116</v>
+        <v>146.813264920153</v>
       </c>
       <c r="L4" t="n">
-        <v>58.7571613562971</v>
+        <v>410.893579005521</v>
       </c>
       <c r="M4" t="n">
-        <v>2.11862157673335</v>
+        <v>2.79874968538431</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="O4" t="n">
-        <v>19.585720452099</v>
+        <v>239.687921086554</v>
       </c>
       <c r="P4" t="n">
-        <v>0.706207192244451</v>
+        <v>1.63260398314085</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.375824401174092</v>
+        <v>0.03276636832656</v>
       </c>
     </row>
     <row r="5">
@@ -16145,46 +16300,205 @@
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>10.7642626480086</v>
+        <v>161.463939720129</v>
       </c>
       <c r="E5" t="n">
-        <v>0.287249604</v>
+        <v>0.0548289198333333</v>
       </c>
       <c r="F5" t="n">
-        <v>10.7642626480086</v>
+        <v>116.97165410836</v>
       </c>
       <c r="G5" t="n">
-        <v>3.09203018299247</v>
+        <v>8.85289340688913</v>
       </c>
       <c r="H5" t="n">
-        <v>0.143624802</v>
+        <v>0.03527538035</v>
       </c>
       <c r="I5" t="n">
-        <v>1.54601509149623</v>
+        <v>4.12621958884105</v>
       </c>
       <c r="J5" t="n">
-        <v>6.18406036598493</v>
+        <v>28.8835371218873</v>
       </c>
       <c r="K5" t="n">
-        <v>27.7336745748116</v>
+        <v>146.813264920153</v>
       </c>
       <c r="L5" t="n">
-        <v>58.7571613562971</v>
+        <v>410.893579005521</v>
       </c>
       <c r="M5" t="n">
-        <v>2.11862157673335</v>
+        <v>2.79874968538431</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>1.71428571428571</v>
       </c>
       <c r="O5" t="n">
-        <v>19.585720452099</v>
+        <v>239.687921086554</v>
       </c>
       <c r="P5" t="n">
-        <v>0.706207192244451</v>
+        <v>1.63260398314085</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.375824401174092</v>
+        <v>0.03276636832656</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44.4922856117689</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0157218408666667</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.25583064226767</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.699500634182514</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.014676576975</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.0184312950888051</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.129019065621636</v>
+      </c>
+      <c r="K6" t="n">
+        <v>146.813264920153</v>
+      </c>
+      <c r="L6" t="n">
+        <v>410.893579005521</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.79874968538431</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O6" t="n">
+        <v>239.687921086554</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.63260398314085</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.03276636832656</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45.7481162540366</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0136313130833333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-8.07319698600645</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.623606895631503</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0163267550416667</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.131809109593649</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.922663767155543</v>
+      </c>
+      <c r="K7" t="n">
+        <v>146.813264920153</v>
+      </c>
+      <c r="L7" t="n">
+        <v>410.893579005521</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.79874968538431</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O7" t="n">
+        <v>239.687921086554</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.63260398314085</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.03276636832656</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>53.8213132400431</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.019022197</v>
+      </c>
+      <c r="F8" t="n">
+        <v>53.8213132400431</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.02379962325081</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0095110985</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.511899811625404</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.58329868137783</v>
+      </c>
+      <c r="K8" t="n">
+        <v>146.813264920153</v>
+      </c>
+      <c r="L8" t="n">
+        <v>410.893579005521</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.79874968538431</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="O8" t="n">
+        <v>239.687921086554</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.63260398314085</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.03276636832656</v>
       </c>
     </row>
   </sheetData>
@@ -16491,46 +16805,46 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>21.5285252960172</v>
+        <v>72.6587728740581</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0076</v>
+        <v>0.0054</v>
       </c>
       <c r="F2" t="n">
-        <v>-199.138858988159</v>
+        <v>-449.40796555436</v>
       </c>
       <c r="G2" t="n">
-        <v>0.163616792249731</v>
+        <v>0.392357373519914</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0427662025</v>
+        <v>0.131232086375</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.51641276910657</v>
+        <v>-58.9767449532427</v>
       </c>
       <c r="J2" t="n">
-        <v>-59.614889383746</v>
+        <v>-353.860469719456</v>
       </c>
       <c r="K2" t="n">
-        <v>146.813264920153</v>
+        <v>206.516999052745</v>
       </c>
       <c r="L2" t="n">
-        <v>410.893579005521</v>
+        <v>762.807579033907</v>
       </c>
       <c r="M2" t="n">
-        <v>2.79874968538431</v>
+        <v>3.69367937037999</v>
       </c>
       <c r="N2" t="n">
-        <v>1.71428571428571</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>239.687921086554</v>
+        <v>381.403789516954</v>
       </c>
       <c r="P2" t="n">
-        <v>1.63260398314085</v>
+        <v>1.84683968518999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03276636832656</v>
+        <v>0.218467392365488</v>
       </c>
     </row>
     <row r="3">
@@ -16544,46 +16858,46 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>220.667384284177</v>
+        <v>522.066738428418</v>
       </c>
       <c r="E3" t="n">
-        <v>0.077932405</v>
+        <v>0.25706417275</v>
       </c>
       <c r="F3" t="n">
-        <v>-357.911733046286</v>
+        <v>365.984930032293</v>
       </c>
       <c r="G3" t="n">
-        <v>17.1971399623251</v>
+        <v>134.204654234392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.141158542375</v>
+        <v>0.24067576825</v>
       </c>
       <c r="I3" t="n">
-        <v>-50.5222985357239</v>
+        <v>88.0837042034446</v>
       </c>
       <c r="J3" t="n">
-        <v>-353.656089750067</v>
+        <v>528.502225220667</v>
       </c>
       <c r="K3" t="n">
-        <v>146.813264920153</v>
+        <v>206.516999052745</v>
       </c>
       <c r="L3" t="n">
-        <v>410.893579005521</v>
+        <v>762.807579033907</v>
       </c>
       <c r="M3" t="n">
-        <v>2.79874968538431</v>
+        <v>3.69367937037999</v>
       </c>
       <c r="N3" t="n">
-        <v>1.71428571428571</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>239.687921086554</v>
+        <v>381.403789516954</v>
       </c>
       <c r="P3" t="n">
-        <v>1.63260398314085</v>
+        <v>1.84683968518999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03276636832656</v>
+        <v>0.218467392365488</v>
       </c>
     </row>
     <row r="4">
@@ -16597,46 +16911,46 @@
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>578.579117330463</v>
+        <v>156.081808396125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.20438467975</v>
+        <v>0.22428736375</v>
       </c>
       <c r="F4" t="n">
-        <v>417.115177610334</v>
+        <v>107.642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>118.252707605624</v>
+        <v>35.0071773344995</v>
       </c>
       <c r="H4" t="n">
-        <v>0.129606799791667</v>
+        <v>0.191155519125</v>
       </c>
       <c r="I4" t="n">
-        <v>54.060963314608</v>
+        <v>20.5764821447793</v>
       </c>
       <c r="J4" t="n">
-        <v>378.426743202256</v>
+        <v>123.458892868676</v>
       </c>
       <c r="K4" t="n">
-        <v>146.813264920153</v>
+        <v>206.516999052745</v>
       </c>
       <c r="L4" t="n">
-        <v>410.893579005521</v>
+        <v>762.807579033907</v>
       </c>
       <c r="M4" t="n">
-        <v>2.79874968538431</v>
+        <v>3.69367937037999</v>
       </c>
       <c r="N4" t="n">
-        <v>1.71428571428571</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>239.687921086554</v>
+        <v>381.403789516954</v>
       </c>
       <c r="P4" t="n">
-        <v>1.63260398314085</v>
+        <v>1.84683968518999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03276636832656</v>
+        <v>0.218467392365488</v>
       </c>
     </row>
     <row r="5">
@@ -16650,46 +16964,46 @@
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>161.463939720129</v>
+        <v>48.4391819160387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0548289198333333</v>
+        <v>0.1580236745</v>
       </c>
       <c r="F5" t="n">
-        <v>116.97165410836</v>
+        <v>37.6749192680301</v>
       </c>
       <c r="G5" t="n">
-        <v>8.85289340688913</v>
+        <v>7.65453751614639</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03527538035</v>
+        <v>0.11128564175</v>
       </c>
       <c r="I5" t="n">
-        <v>4.12621958884105</v>
+        <v>4.19267756862217</v>
       </c>
       <c r="J5" t="n">
-        <v>28.8835371218873</v>
+        <v>25.156065411733</v>
       </c>
       <c r="K5" t="n">
-        <v>146.813264920153</v>
+        <v>206.516999052745</v>
       </c>
       <c r="L5" t="n">
-        <v>410.893579005521</v>
+        <v>762.807579033907</v>
       </c>
       <c r="M5" t="n">
-        <v>2.79874968538431</v>
+        <v>3.69367937037999</v>
       </c>
       <c r="N5" t="n">
-        <v>1.71428571428571</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>239.687921086554</v>
+        <v>381.403789516954</v>
       </c>
       <c r="P5" t="n">
-        <v>1.63260398314085</v>
+        <v>1.84683968518999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03276636832656</v>
+        <v>0.218467392365488</v>
       </c>
     </row>
     <row r="6">
@@ -16703,46 +17017,46 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>44.4922856117689</v>
+        <v>10.7642626480086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0157218408666667</v>
+        <v>0.064547609</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.25583064226767</v>
+        <v>-43.0570505920345</v>
       </c>
       <c r="G6" t="n">
-        <v>0.699500634182514</v>
+        <v>0.694807416576965</v>
       </c>
       <c r="H6" t="n">
-        <v>0.014676576975</v>
+        <v>0.297628396</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0184312950888051</v>
+        <v>-12.8150009041981</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.129019065621636</v>
+        <v>-76.8900054251884</v>
       </c>
       <c r="K6" t="n">
-        <v>146.813264920153</v>
+        <v>206.516999052745</v>
       </c>
       <c r="L6" t="n">
-        <v>410.893579005521</v>
+        <v>762.807579033907</v>
       </c>
       <c r="M6" t="n">
-        <v>2.79874968538431</v>
+        <v>3.69367937037999</v>
       </c>
       <c r="N6" t="n">
-        <v>1.71428571428571</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>239.687921086554</v>
+        <v>381.403789516954</v>
       </c>
       <c r="P6" t="n">
-        <v>1.63260398314085</v>
+        <v>1.84683968518999</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03276636832656</v>
+        <v>0.218467392365488</v>
       </c>
     </row>
     <row r="7">
@@ -16756,99 +17070,46 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>45.7481162540366</v>
+        <v>53.8213132400431</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0136313130833333</v>
+        <v>0.530709183</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.07319698600645</v>
+        <v>53.8213132400431</v>
       </c>
       <c r="G7" t="n">
-        <v>0.623606895631503</v>
+        <v>28.5634651776103</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0163267550416667</v>
+        <v>0.2653545915</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.131809109593649</v>
+        <v>14.2817325888052</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.922663767155543</v>
+        <v>85.690395532831</v>
       </c>
       <c r="K7" t="n">
-        <v>146.813264920153</v>
+        <v>206.516999052745</v>
       </c>
       <c r="L7" t="n">
-        <v>410.893579005521</v>
+        <v>762.807579033907</v>
       </c>
       <c r="M7" t="n">
-        <v>2.79874968538431</v>
+        <v>3.69367937037999</v>
       </c>
       <c r="N7" t="n">
-        <v>1.71428571428571</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>239.687921086554</v>
+        <v>381.403789516954</v>
       </c>
       <c r="P7" t="n">
-        <v>1.63260398314085</v>
+        <v>1.84683968518999</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.03276636832656</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="n">
-        <v>53.8213132400431</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.019022197</v>
-      </c>
-      <c r="F8" t="n">
-        <v>53.8213132400431</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.02379962325081</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0095110985</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.511899811625404</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.58329868137783</v>
-      </c>
-      <c r="K8" t="n">
-        <v>146.813264920153</v>
-      </c>
-      <c r="L8" t="n">
-        <v>410.893579005521</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.79874968538431</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.71428571428571</v>
-      </c>
-      <c r="O8" t="n">
-        <v>239.687921086554</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.63260398314085</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.03276636832656</v>
+        <v>0.218467392365488</v>
       </c>
     </row>
   </sheetData>
@@ -16923,52 +17184,52 @@
         <v>78</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>72.6587728740581</v>
+        <v>26.9106566200215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0054</v>
+        <v>0.816025449</v>
       </c>
       <c r="F2" t="n">
-        <v>-449.40796555436</v>
+        <v>-1.7940437746681</v>
       </c>
       <c r="G2" t="n">
-        <v>0.392357373519914</v>
+        <v>21.9597806512379</v>
       </c>
       <c r="H2" t="n">
-        <v>0.131232086375</v>
+        <v>1.08743880733333</v>
       </c>
       <c r="I2" t="n">
-        <v>-58.9767449532427</v>
+        <v>-1.95091282262887</v>
       </c>
       <c r="J2" t="n">
-        <v>-353.860469719456</v>
+        <v>-19.5091282262887</v>
       </c>
       <c r="K2" t="n">
-        <v>206.516999052745</v>
+        <v>1659.28321744468</v>
       </c>
       <c r="L2" t="n">
-        <v>762.807579033907</v>
+        <v>6156.66520355221</v>
       </c>
       <c r="M2" t="n">
-        <v>3.69367937037999</v>
+        <v>3.71043661433131</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O2" t="n">
-        <v>381.403789516954</v>
+        <v>5130.55433629351</v>
       </c>
       <c r="P2" t="n">
-        <v>1.84683968518999</v>
+        <v>3.09203051194275</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.218467392365488</v>
+        <v>0.0354054485014998</v>
       </c>
     </row>
     <row r="3">
@@ -16976,52 +17237,52 @@
         <v>78</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>522.066738428418</v>
+        <v>28.7047003946896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25706417275</v>
+        <v>1.35885216566667</v>
       </c>
       <c r="F3" t="n">
-        <v>365.984930032293</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>134.204654234392</v>
+        <v>39.0054442961368</v>
       </c>
       <c r="H3" t="n">
-        <v>0.24067576825</v>
+        <v>1.6695583695</v>
       </c>
       <c r="I3" t="n">
-        <v>88.0837042034446</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>528.502225220667</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>206.516999052745</v>
+        <v>1659.28321744468</v>
       </c>
       <c r="L3" t="n">
-        <v>762.807579033907</v>
+        <v>6156.66520355221</v>
       </c>
       <c r="M3" t="n">
-        <v>3.69367937037999</v>
+        <v>3.71043661433131</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O3" t="n">
-        <v>381.403789516954</v>
+        <v>5130.55433629351</v>
       </c>
       <c r="P3" t="n">
-        <v>1.84683968518999</v>
+        <v>3.09203051194275</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.218467392365488</v>
+        <v>0.0354054485014998</v>
       </c>
     </row>
     <row r="4">
@@ -17029,52 +17290,52 @@
         <v>78</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>156.081808396125</v>
+        <v>28.7047003946896</v>
       </c>
       <c r="E4" t="n">
-        <v>0.22428736375</v>
+        <v>1.98026457333333</v>
       </c>
       <c r="F4" t="n">
-        <v>107.642626480086</v>
+        <v>-10.7642626480086</v>
       </c>
       <c r="G4" t="n">
-        <v>35.0071773344995</v>
+        <v>56.8429012797512</v>
       </c>
       <c r="H4" t="n">
-        <v>0.191155519125</v>
+        <v>2.8766906575</v>
       </c>
       <c r="I4" t="n">
-        <v>20.5764821447793</v>
+        <v>-30.9654537944026</v>
       </c>
       <c r="J4" t="n">
-        <v>123.458892868676</v>
+        <v>-309.654537944026</v>
       </c>
       <c r="K4" t="n">
-        <v>206.516999052745</v>
+        <v>1659.28321744468</v>
       </c>
       <c r="L4" t="n">
-        <v>762.807579033907</v>
+        <v>6156.66520355221</v>
       </c>
       <c r="M4" t="n">
-        <v>3.69367937037999</v>
+        <v>3.71043661433131</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="n">
-        <v>381.403789516954</v>
+        <v>5130.55433629351</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84683968518999</v>
+        <v>3.09203051194275</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.218467392365488</v>
+        <v>0.0354054485014998</v>
       </c>
     </row>
     <row r="5">
@@ -17082,52 +17343,52 @@
         <v>78</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>48.4391819160387</v>
+        <v>39.4689630426982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1580236745</v>
+        <v>3.77311674166667</v>
       </c>
       <c r="F5" t="n">
-        <v>37.6749192680301</v>
+        <v>-3.5880875493362</v>
       </c>
       <c r="G5" t="n">
-        <v>7.65453751614639</v>
+        <v>148.921005232628</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11128564175</v>
+        <v>4.63081309308333</v>
       </c>
       <c r="I5" t="n">
-        <v>4.19267756862217</v>
+        <v>-16.6157628025954</v>
       </c>
       <c r="J5" t="n">
-        <v>25.156065411733</v>
+        <v>-166.157628025954</v>
       </c>
       <c r="K5" t="n">
-        <v>206.516999052745</v>
+        <v>1659.28321744468</v>
       </c>
       <c r="L5" t="n">
-        <v>762.807579033907</v>
+        <v>6156.66520355221</v>
       </c>
       <c r="M5" t="n">
-        <v>3.69367937037999</v>
+        <v>3.71043661433131</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O5" t="n">
-        <v>381.403789516954</v>
+        <v>5130.55433629351</v>
       </c>
       <c r="P5" t="n">
-        <v>1.84683968518999</v>
+        <v>3.09203051194275</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.218467392365488</v>
+        <v>0.0354054485014998</v>
       </c>
     </row>
     <row r="6">
@@ -17135,52 +17396,52 @@
         <v>78</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>10.7642626480086</v>
+        <v>43.0570505920345</v>
       </c>
       <c r="E6" t="n">
-        <v>0.064547609</v>
+        <v>5.4885094445</v>
       </c>
       <c r="F6" t="n">
-        <v>-43.0570505920345</v>
+        <v>21.5285252960172</v>
       </c>
       <c r="G6" t="n">
-        <v>0.694807416576965</v>
+        <v>236.319028826695</v>
       </c>
       <c r="H6" t="n">
-        <v>0.297628396</v>
+        <v>4.51917958925</v>
       </c>
       <c r="I6" t="n">
-        <v>-12.8150009041981</v>
+        <v>97.2912721044133</v>
       </c>
       <c r="J6" t="n">
-        <v>-76.8900054251884</v>
+        <v>972.912721044133</v>
       </c>
       <c r="K6" t="n">
-        <v>206.516999052745</v>
+        <v>1659.28321744468</v>
       </c>
       <c r="L6" t="n">
-        <v>762.807579033907</v>
+        <v>6156.66520355221</v>
       </c>
       <c r="M6" t="n">
-        <v>3.69367937037999</v>
+        <v>3.71043661433131</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="O6" t="n">
-        <v>381.403789516954</v>
+        <v>5130.55433629351</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84683968518999</v>
+        <v>3.09203051194275</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.218467392365488</v>
+        <v>0.0354054485014998</v>
       </c>
     </row>
     <row r="7">
@@ -17188,391 +17449,6 @@
         <v>78</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>53.8213132400431</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.530709183</v>
-      </c>
-      <c r="F7" t="n">
-        <v>53.8213132400431</v>
-      </c>
-      <c r="G7" t="n">
-        <v>28.5634651776103</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.2653545915</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14.2817325888052</v>
-      </c>
-      <c r="J7" t="n">
-        <v>85.690395532831</v>
-      </c>
-      <c r="K7" t="n">
-        <v>206.516999052745</v>
-      </c>
-      <c r="L7" t="n">
-        <v>762.807579033907</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.69367937037999</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>381.403789516954</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.84683968518999</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.218467392365488</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.9106566200215</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.816025449</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-1.7940437746681</v>
-      </c>
-      <c r="G2" t="n">
-        <v>21.9597806512379</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.08743880733333</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-1.95091282262887</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-19.5091282262887</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1659.28321744468</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6156.66520355221</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.71043661433131</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5130.55433629351</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.09203051194275</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0354054485014998</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.7047003946896</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.35885216566667</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>39.0054442961368</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.6695583695</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1659.28321744468</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6156.66520355221</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.71043661433131</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5130.55433629351</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.09203051194275</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0354054485014998</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.7047003946896</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.98026457333333</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-10.7642626480086</v>
-      </c>
-      <c r="G4" t="n">
-        <v>56.8429012797512</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.8766906575</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-30.9654537944026</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-309.654537944026</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1659.28321744468</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6156.66520355221</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.71043661433131</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5130.55433629351</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.09203051194275</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0354054485014998</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39.4689630426982</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.77311674166667</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-3.5880875493362</v>
-      </c>
-      <c r="G5" t="n">
-        <v>148.921005232628</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.63081309308333</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-16.6157628025954</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-166.157628025954</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1659.28321744468</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6156.66520355221</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.71043661433131</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5130.55433629351</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.09203051194275</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.0354054485014998</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43.0570505920345</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.4885094445</v>
-      </c>
-      <c r="F6" t="n">
-        <v>21.5285252960172</v>
-      </c>
-      <c r="G6" t="n">
-        <v>236.319028826695</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.51917958925</v>
-      </c>
-      <c r="I6" t="n">
-        <v>97.2912721044133</v>
-      </c>
-      <c r="J6" t="n">
-        <v>972.912721044133</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1659.28321744468</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6156.66520355221</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.71043661433131</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5130.55433629351</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.09203051194275</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0354054485014998</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="n">
         <v>10</v>
       </c>
       <c r="C7" t="s">
@@ -17623,7 +17499,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="n">
         <v>11</v>
@@ -17676,7 +17552,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="n">
         <v>12</v>
@@ -17729,7 +17605,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="n">
         <v>15</v>
@@ -17782,7 +17658,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" t="n">
         <v>50</v>
@@ -18140,28 +18016,28 @@
         <v>10.7642626480086</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0228164023</v>
+        <v>0.00228164023</v>
       </c>
       <c r="F2" t="n">
         <v>10.7642626480086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.245601747039828</v>
+        <v>0.0245601747039828</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01140820115</v>
+        <v>0.001140820115</v>
       </c>
       <c r="I2" t="n">
-        <v>0.122800873519914</v>
+        <v>0.0122800873519914</v>
       </c>
       <c r="J2" t="n">
-        <v>0.122800873519914</v>
+        <v>0.0122800873519914</v>
       </c>
       <c r="K2" t="n">
-        <v>0.245601747039828</v>
+        <v>0.0245601747039828</v>
       </c>
       <c r="L2" t="n">
-        <v>0.122800873519914</v>
+        <v>0.0122800873519914</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
@@ -18170,7 +18046,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0102334061266595</v>
+        <v>0.00102334061266595</v>
       </c>
       <c r="P2" t="n">
         <v>0.0416666666666667</v>
